--- a/Organisatorisches/Arbeitszeiten.xlsx
+++ b/Organisatorisches/Arbeitszeiten.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Daniel\Desktop\Schule\Diplomarbeit\ISTER\Organisatorisches\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Daniel\Desktop\Schule\Diplomarbeit\Ruderverein_ISTER\1819-5ahif-da-ruderverein-ister-dreamteam\Organisatorisches\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{33341918-CFC3-4DDB-B49F-024F774494BA}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{9B66E745-4071-4FA4-819D-0E3DFFD10654}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="6960" xr2:uid="{B5A97CFA-7350-44BD-8E9B-90279A779877}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="36">
   <si>
     <t>Datum</t>
   </si>
@@ -130,6 +130,9 @@
   </si>
   <si>
     <t>Fehlerdokumentation von LitElement + warum wir jetzt Angular verwenden wollen</t>
+  </si>
+  <si>
+    <t>Mit Demo von Hr. Prof. Stütz Fehler gefixed</t>
   </si>
 </sst>
 </file>
@@ -519,8 +522,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB4D4F47-197B-4479-93DD-E9C21F2B9FCB}">
   <dimension ref="A1:H45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="E39" sqref="E39"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -585,7 +588,7 @@
       </c>
       <c r="H3">
         <f>SUMIF(B2:B150,"Daniel",D2:D150)</f>
-        <v>62</v>
+        <v>63.5</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
@@ -1135,7 +1138,18 @@
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A43" s="2"/>
+      <c r="A43" s="2">
+        <v>43389</v>
+      </c>
+      <c r="B43" t="s">
+        <v>3</v>
+      </c>
+      <c r="C43" t="s">
+        <v>35</v>
+      </c>
+      <c r="D43">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" s="2"/>

--- a/Organisatorisches/Arbeitszeiten.xlsx
+++ b/Organisatorisches/Arbeitszeiten.xlsx
@@ -1,31 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Daniel\Desktop\Schule\Diplomarbeit\Ruderverein_ISTER\1819-5ahif-da-ruderverein-ister-dreamteam\Organisatorisches\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DaRepo3\1819-5ahif-da-ruderverein-ister-dreamteam\Organisatorisches\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{9B66E745-4071-4FA4-819D-0E3DFFD10654}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D65877D0-C230-4D6B-8128-5840591D4E51}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="6960" xr2:uid="{B5A97CFA-7350-44BD-8E9B-90279A779877}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17250" windowHeight="6960" xr2:uid="{B5A97CFA-7350-44BD-8E9B-90279A779877}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="179021"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="37">
   <si>
     <t>Datum</t>
   </si>
@@ -133,6 +138,9 @@
   </si>
   <si>
     <t>Mit Demo von Hr. Prof. Stütz Fehler gefixed</t>
+  </si>
+  <si>
+    <t>GetAll hinzugefügt</t>
   </si>
 </sst>
 </file>
@@ -522,16 +530,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB4D4F47-197B-4479-93DD-E9C21F2B9FCB}">
   <dimension ref="A1:H45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="C53" sqref="C53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="67.77734375" customWidth="1"/>
+    <col min="3" max="3" width="67.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -549,7 +557,7 @@
       </c>
       <c r="H1" s="5"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>43279</v>
       </c>
@@ -569,7 +577,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>43279</v>
       </c>
@@ -584,14 +592,14 @@
       </c>
       <c r="G3" s="4">
         <f>SUMIF(B2:B150,"David",D2:D150)</f>
-        <v>40.5</v>
+        <v>42</v>
       </c>
       <c r="H3">
         <f>SUMIF(B2:B150,"Daniel",D2:D150)</f>
         <v>63.5</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>43296</v>
       </c>
@@ -605,7 +613,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>43296</v>
       </c>
@@ -619,7 +627,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>43311</v>
       </c>
@@ -633,7 +641,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>43311</v>
       </c>
@@ -647,7 +655,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>43326</v>
       </c>
@@ -661,7 +669,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>43326</v>
       </c>
@@ -675,7 +683,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>43328</v>
       </c>
@@ -689,7 +697,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>43331</v>
       </c>
@@ -703,7 +711,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>43332</v>
       </c>
@@ -717,7 +725,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>43333</v>
       </c>
@@ -731,7 +739,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>43333</v>
       </c>
@@ -745,7 +753,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>43334</v>
       </c>
@@ -759,7 +767,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>43336</v>
       </c>
@@ -773,7 +781,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>43359</v>
       </c>
@@ -787,7 +795,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>43360</v>
       </c>
@@ -801,7 +809,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>43360</v>
       </c>
@@ -815,7 +823,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>43362</v>
       </c>
@@ -829,7 +837,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>43364</v>
       </c>
@@ -843,7 +851,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>43365</v>
       </c>
@@ -857,7 +865,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>43366</v>
       </c>
@@ -871,7 +879,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>43366</v>
       </c>
@@ -885,7 +893,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>43366</v>
       </c>
@@ -899,7 +907,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>43368</v>
       </c>
@@ -913,7 +921,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>43368</v>
       </c>
@@ -927,7 +935,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>43369</v>
       </c>
@@ -941,7 +949,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>43370</v>
       </c>
@@ -955,7 +963,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>43371</v>
       </c>
@@ -969,7 +977,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>43373</v>
       </c>
@@ -983,7 +991,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>43374</v>
       </c>
@@ -997,7 +1005,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>43374</v>
       </c>
@@ -1011,7 +1019,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>43375</v>
       </c>
@@ -1025,7 +1033,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>43375</v>
       </c>
@@ -1039,7 +1047,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>43376</v>
       </c>
@@ -1053,7 +1061,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>43377</v>
       </c>
@@ -1067,7 +1075,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>43378</v>
       </c>
@@ -1081,7 +1089,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <v>43378</v>
       </c>
@@ -1095,7 +1103,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <v>43380</v>
       </c>
@@ -1109,7 +1117,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
         <v>43381</v>
       </c>
@@ -1123,7 +1131,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
         <v>43382</v>
       </c>
@@ -1137,7 +1145,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
         <v>43389</v>
       </c>
@@ -1151,10 +1159,21 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A44" s="2"/>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="2">
+        <v>43391</v>
+      </c>
+      <c r="B44" t="s">
+        <v>5</v>
+      </c>
+      <c r="C44" t="s">
+        <v>36</v>
+      </c>
+      <c r="D44">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="2"/>
     </row>
   </sheetData>

--- a/Organisatorisches/Arbeitszeiten.xlsx
+++ b/Organisatorisches/Arbeitszeiten.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DaRepo3\1819-5ahif-da-ruderverein-ister-dreamteam\Organisatorisches\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D65877D0-C230-4D6B-8128-5840591D4E51}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EC27403-AAF5-4877-80A2-501774AEBEDE}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17250" windowHeight="6960" xr2:uid="{B5A97CFA-7350-44BD-8E9B-90279A779877}"/>
   </bookViews>
@@ -140,7 +140,7 @@
     <t>Mit Demo von Hr. Prof. Stütz Fehler gefixed</t>
   </si>
   <si>
-    <t>GetAll hinzugefügt</t>
+    <t>GetAll-Methoden finalisiert</t>
   </si>
 </sst>
 </file>
@@ -530,8 +530,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB4D4F47-197B-4479-93DD-E9C21F2B9FCB}">
   <dimension ref="A1:H45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="C53" sqref="C53"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="D45" sqref="D45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -592,7 +592,7 @@
       </c>
       <c r="G3" s="4">
         <f>SUMIF(B2:B150,"David",D2:D150)</f>
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H3">
         <f>SUMIF(B2:B150,"Daniel",D2:D150)</f>
@@ -1170,7 +1170,7 @@
         <v>36</v>
       </c>
       <c r="D44">
-        <v>1.5</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">

--- a/Organisatorisches/Arbeitszeiten.xlsx
+++ b/Organisatorisches/Arbeitszeiten.xlsx
@@ -1,36 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DaRepo3\1819-5ahif-da-ruderverein-ister-dreamteam\Organisatorisches\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Daniel\Desktop\Schule\Diplomarbeit\Ruderverein_ISTER\1819-5ahif-da-ruderverein-ister-dreamteam\Organisatorisches\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EC27403-AAF5-4877-80A2-501774AEBEDE}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{FDDCDBC1-F694-4242-99EB-7F66C6B7E80D}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17250" windowHeight="6960" xr2:uid="{B5A97CFA-7350-44BD-8E9B-90279A779877}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="6960" xr2:uid="{B5A97CFA-7350-44BD-8E9B-90279A779877}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="179017"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="38">
   <si>
     <t>Datum</t>
   </si>
@@ -125,9 +120,6 @@
     <t>SQL-Statements für getAll() Methoden erstellt</t>
   </si>
   <si>
-    <t>POST Distance + Picture</t>
-  </si>
-  <si>
     <t>WebComponents mit Polymer 3, Fehler fixen</t>
   </si>
   <si>
@@ -141,6 +133,12 @@
   </si>
   <si>
     <t>GetAll-Methoden finalisiert</t>
+  </si>
+  <si>
+    <t>Website responsive gemacht, POST DataService</t>
+  </si>
+  <si>
+    <t>POST DataService</t>
   </si>
 </sst>
 </file>
@@ -530,16 +528,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB4D4F47-197B-4479-93DD-E9C21F2B9FCB}">
   <dimension ref="A1:H45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="D45" sqref="D45"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E43" sqref="E43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="67.7109375" customWidth="1"/>
+    <col min="3" max="3" width="67.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -557,7 +555,7 @@
       </c>
       <c r="H1" s="5"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>43279</v>
       </c>
@@ -577,7 +575,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>43279</v>
       </c>
@@ -596,10 +594,10 @@
       </c>
       <c r="H3">
         <f>SUMIF(B2:B150,"Daniel",D2:D150)</f>
-        <v>63.5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+        <v>68.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>43296</v>
       </c>
@@ -613,7 +611,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>43296</v>
       </c>
@@ -627,7 +625,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>43311</v>
       </c>
@@ -641,7 +639,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>43311</v>
       </c>
@@ -655,7 +653,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>43326</v>
       </c>
@@ -669,7 +667,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>43326</v>
       </c>
@@ -683,7 +681,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>43328</v>
       </c>
@@ -697,7 +695,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>43331</v>
       </c>
@@ -711,7 +709,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>43332</v>
       </c>
@@ -725,7 +723,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>43333</v>
       </c>
@@ -739,7 +737,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>43333</v>
       </c>
@@ -753,7 +751,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>43334</v>
       </c>
@@ -767,7 +765,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>43336</v>
       </c>
@@ -781,7 +779,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>43359</v>
       </c>
@@ -795,7 +793,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>43360</v>
       </c>
@@ -809,7 +807,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>43360</v>
       </c>
@@ -823,7 +821,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <v>43362</v>
       </c>
@@ -837,7 +835,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>43364</v>
       </c>
@@ -851,7 +849,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <v>43365</v>
       </c>
@@ -865,7 +863,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <v>43366</v>
       </c>
@@ -879,7 +877,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <v>43366</v>
       </c>
@@ -893,7 +891,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
         <v>43366</v>
       </c>
@@ -907,7 +905,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
         <v>43368</v>
       </c>
@@ -921,7 +919,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
         <v>43368</v>
       </c>
@@ -935,7 +933,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
         <v>43369</v>
       </c>
@@ -943,13 +941,13 @@
         <v>3</v>
       </c>
       <c r="C28" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D28">
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
         <v>43370</v>
       </c>
@@ -957,13 +955,13 @@
         <v>3</v>
       </c>
       <c r="C29" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D29">
         <v>2.5</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
         <v>43371</v>
       </c>
@@ -977,7 +975,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
         <v>43373</v>
       </c>
@@ -991,7 +989,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" s="2">
         <v>43374</v>
       </c>
@@ -1005,7 +1003,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" s="2">
         <v>43374</v>
       </c>
@@ -1019,7 +1017,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="2">
         <v>43375</v>
       </c>
@@ -1033,7 +1031,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" s="2">
         <v>43375</v>
       </c>
@@ -1047,7 +1045,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" s="2">
         <v>43376</v>
       </c>
@@ -1055,13 +1053,13 @@
         <v>3</v>
       </c>
       <c r="C36" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D36">
         <v>3.5</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" s="2">
         <v>43377</v>
       </c>
@@ -1075,7 +1073,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" s="2">
         <v>43378</v>
       </c>
@@ -1083,13 +1081,13 @@
         <v>3</v>
       </c>
       <c r="C38" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D38">
         <v>1.5</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" s="2">
         <v>43378</v>
       </c>
@@ -1103,7 +1101,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" s="2">
         <v>43380</v>
       </c>
@@ -1117,23 +1115,23 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" s="2">
-        <v>43381</v>
+        <v>43382</v>
       </c>
       <c r="B41" t="s">
         <v>3</v>
       </c>
       <c r="C41" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D41">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" s="2">
-        <v>43382</v>
+        <v>43389</v>
       </c>
       <c r="B42" t="s">
         <v>3</v>
@@ -1142,24 +1140,24 @@
         <v>34</v>
       </c>
       <c r="D42">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" s="2">
-        <v>43389</v>
+        <v>43391</v>
       </c>
       <c r="B43" t="s">
         <v>3</v>
       </c>
       <c r="C43" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D43">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" s="2">
         <v>43391</v>
       </c>
@@ -1167,14 +1165,25 @@
         <v>5</v>
       </c>
       <c r="C44" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D44">
         <v>3.5</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="2"/>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A45" s="2">
+        <v>43394</v>
+      </c>
+      <c r="B45" t="s">
+        <v>3</v>
+      </c>
+      <c r="C45" t="s">
+        <v>37</v>
+      </c>
+      <c r="D45">
+        <v>0.5</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Organisatorisches/Arbeitszeiten.xlsx
+++ b/Organisatorisches/Arbeitszeiten.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Daniel\Desktop\Schule\Diplomarbeit\Ruderverein_ISTER\1819-5ahif-da-ruderverein-ister-dreamteam\Organisatorisches\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{FDDCDBC1-F694-4242-99EB-7F66C6B7E80D}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{04662BE3-FF5A-48A8-8006-F8B27AA0C492}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="6960" xr2:uid="{B5A97CFA-7350-44BD-8E9B-90279A779877}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="38">
   <si>
     <t>Datum</t>
   </si>
@@ -526,10 +526,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB4D4F47-197B-4479-93DD-E9C21F2B9FCB}">
-  <dimension ref="A1:H45"/>
+  <dimension ref="A1:H46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E43" sqref="E43"/>
+      <selection activeCell="C47" sqref="C47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -594,7 +594,7 @@
       </c>
       <c r="H3">
         <f>SUMIF(B2:B150,"Daniel",D2:D150)</f>
-        <v>68.5</v>
+        <v>69.5</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
@@ -1183,6 +1183,20 @@
       </c>
       <c r="D45">
         <v>0.5</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A46" s="2">
+        <v>43401</v>
+      </c>
+      <c r="B46" t="s">
+        <v>3</v>
+      </c>
+      <c r="C46" t="s">
+        <v>37</v>
+      </c>
+      <c r="D46">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Organisatorisches/Arbeitszeiten.xlsx
+++ b/Organisatorisches/Arbeitszeiten.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Daniel\Desktop\Schule\Diplomarbeit\Ruderverein_ISTER\1819-5ahif-da-ruderverein-ister-dreamteam\Organisatorisches\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{04662BE3-FF5A-48A8-8006-F8B27AA0C492}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{7A28DC6E-7BE8-4C87-8B5C-E645128C75EA}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="6960" xr2:uid="{B5A97CFA-7350-44BD-8E9B-90279A779877}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="39">
   <si>
     <t>Datum</t>
   </si>
@@ -139,6 +139,9 @@
   </si>
   <si>
     <t>POST DataService</t>
+  </si>
+  <si>
+    <t>Bulk Upload Excel</t>
   </si>
 </sst>
 </file>
@@ -526,10 +529,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB4D4F47-197B-4479-93DD-E9C21F2B9FCB}">
-  <dimension ref="A1:H46"/>
+  <dimension ref="A1:H47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C47" sqref="C47"/>
+      <selection activeCell="E45" sqref="E45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -594,7 +597,7 @@
       </c>
       <c r="H3">
         <f>SUMIF(B2:B150,"Daniel",D2:D150)</f>
-        <v>69.5</v>
+        <v>72</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
@@ -1197,6 +1200,20 @@
       </c>
       <c r="D46">
         <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A47" s="2">
+        <v>43402</v>
+      </c>
+      <c r="B47" t="s">
+        <v>3</v>
+      </c>
+      <c r="C47" t="s">
+        <v>38</v>
+      </c>
+      <c r="D47">
+        <v>2.5</v>
       </c>
     </row>
   </sheetData>

--- a/Organisatorisches/Arbeitszeiten.xlsx
+++ b/Organisatorisches/Arbeitszeiten.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Daniel\Desktop\Schule\Diplomarbeit\Ruderverein_ISTER\1819-5ahif-da-ruderverein-ister-dreamteam\Organisatorisches\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{7A28DC6E-7BE8-4C87-8B5C-E645128C75EA}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{6D089A88-F98F-40B3-968D-70DFB46A0273}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="6960" xr2:uid="{B5A97CFA-7350-44BD-8E9B-90279A779877}"/>
   </bookViews>
@@ -141,7 +141,7 @@
     <t>POST DataService</t>
   </si>
   <si>
-    <t>Bulk Upload Excel</t>
+    <t>Read + POST Excel, using jsPdf</t>
   </si>
 </sst>
 </file>
@@ -532,7 +532,7 @@
   <dimension ref="A1:H47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E45" sqref="E45"/>
+      <selection activeCell="E46" sqref="E46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -597,7 +597,7 @@
       </c>
       <c r="H3">
         <f>SUMIF(B2:B150,"Daniel",D2:D150)</f>
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
@@ -1213,7 +1213,7 @@
         <v>38</v>
       </c>
       <c r="D47">
-        <v>2.5</v>
+        <v>5.5</v>
       </c>
     </row>
   </sheetData>

--- a/Organisatorisches/Arbeitszeiten.xlsx
+++ b/Organisatorisches/Arbeitszeiten.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Daniel\Desktop\Schule\Diplomarbeit\Ruderverein_ISTER\1819-5ahif-da-ruderverein-ister-dreamteam\Organisatorisches\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{6D089A88-F98F-40B3-968D-70DFB46A0273}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{81BD2CE4-3BFB-44C1-B1A3-C99CA0530036}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="6960" xr2:uid="{B5A97CFA-7350-44BD-8E9B-90279A779877}"/>
   </bookViews>
@@ -141,7 +141,7 @@
     <t>POST DataService</t>
   </si>
   <si>
-    <t>Read + POST Excel, using jsPdf</t>
+    <t>Read + POST Excel, using jsPdf, output Pdf, TestClientTester erweiter</t>
   </si>
 </sst>
 </file>
@@ -531,8 +531,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB4D4F47-197B-4479-93DD-E9C21F2B9FCB}">
   <dimension ref="A1:H47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E46" sqref="E46"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="F45" sqref="F45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -597,7 +597,7 @@
       </c>
       <c r="H3">
         <f>SUMIF(B2:B150,"Daniel",D2:D150)</f>
-        <v>75</v>
+        <v>77.5</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
@@ -1213,7 +1213,7 @@
         <v>38</v>
       </c>
       <c r="D47">
-        <v>5.5</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/Organisatorisches/Arbeitszeiten.xlsx
+++ b/Organisatorisches/Arbeitszeiten.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Daniel\Desktop\Schule\Diplomarbeit\Ruderverein_ISTER\1819-5ahif-da-ruderverein-ister-dreamteam\Organisatorisches\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{81BD2CE4-3BFB-44C1-B1A3-C99CA0530036}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{174B296B-7975-4F96-94E3-A3A6809BBC99}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="6960" xr2:uid="{B5A97CFA-7350-44BD-8E9B-90279A779877}"/>
   </bookViews>
@@ -141,7 +141,7 @@
     <t>POST DataService</t>
   </si>
   <si>
-    <t>Read + POST Excel, using jsPdf, output Pdf, TestClientTester erweiter</t>
+    <t>Read + POST Excel, using jsPdf, output Pdf, TestClientTester erweitert, OverviewSelection</t>
   </si>
 </sst>
 </file>
@@ -531,8 +531,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB4D4F47-197B-4479-93DD-E9C21F2B9FCB}">
   <dimension ref="A1:H47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="F45" sqref="F45"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="D41" sqref="D41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -597,7 +597,7 @@
       </c>
       <c r="H3">
         <f>SUMIF(B2:B150,"Daniel",D2:D150)</f>
-        <v>77.5</v>
+        <v>78.5</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
@@ -1213,7 +1213,7 @@
         <v>38</v>
       </c>
       <c r="D47">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/Organisatorisches/Arbeitszeiten.xlsx
+++ b/Organisatorisches/Arbeitszeiten.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Daniel\Desktop\Schule\Diplomarbeit\Ruderverein_ISTER\1819-5ahif-da-ruderverein-ister-dreamteam\Organisatorisches\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{174B296B-7975-4F96-94E3-A3A6809BBC99}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{09BE4902-BE98-44F4-B321-F9EC05A60A2D}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="6960" xr2:uid="{B5A97CFA-7350-44BD-8E9B-90279A779877}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="40">
   <si>
     <t>Datum</t>
   </si>
@@ -142,6 +142,9 @@
   </si>
   <si>
     <t>Read + POST Excel, using jsPdf, output Pdf, TestClientTester erweitert, OverviewSelection</t>
+  </si>
+  <si>
+    <t>Debugging</t>
   </si>
 </sst>
 </file>
@@ -529,10 +532,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB4D4F47-197B-4479-93DD-E9C21F2B9FCB}">
-  <dimension ref="A1:H47"/>
+  <dimension ref="A1:H48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="D41" sqref="D41"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -597,7 +600,7 @@
       </c>
       <c r="H3">
         <f>SUMIF(B2:B150,"Daniel",D2:D150)</f>
-        <v>78.5</v>
+        <v>82</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
@@ -1214,6 +1217,20 @@
       </c>
       <c r="D47">
         <v>9</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A48" s="2">
+        <v>43403</v>
+      </c>
+      <c r="B48" t="s">
+        <v>3</v>
+      </c>
+      <c r="C48" t="s">
+        <v>39</v>
+      </c>
+      <c r="D48">
+        <v>3.5</v>
       </c>
     </row>
   </sheetData>

--- a/Organisatorisches/Arbeitszeiten.xlsx
+++ b/Organisatorisches/Arbeitszeiten.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Daniel\Desktop\Schule\Diplomarbeit\Ruderverein_ISTER\1819-5ahif-da-ruderverein-ister-dreamteam\Organisatorisches\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{09BE4902-BE98-44F4-B321-F9EC05A60A2D}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{C06B61CB-C39C-49EE-9DCE-2F66FA921023}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="6960" xr2:uid="{B5A97CFA-7350-44BD-8E9B-90279A779877}"/>
   </bookViews>
@@ -144,7 +144,7 @@
     <t>Read + POST Excel, using jsPdf, output Pdf, TestClientTester erweitert, OverviewSelection</t>
   </si>
   <si>
-    <t>Debugging</t>
+    <t>Debugging, Datepicker Library + Ansicht für Hr. Schramm</t>
   </si>
 </sst>
 </file>
@@ -535,7 +535,7 @@
   <dimension ref="A1:H48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+      <selection activeCell="E44" sqref="E44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -600,7 +600,7 @@
       </c>
       <c r="H3">
         <f>SUMIF(B2:B150,"Daniel",D2:D150)</f>
-        <v>82</v>
+        <v>85.5</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
@@ -1230,7 +1230,7 @@
         <v>39</v>
       </c>
       <c r="D48">
-        <v>3.5</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/Organisatorisches/Arbeitszeiten.xlsx
+++ b/Organisatorisches/Arbeitszeiten.xlsx
@@ -1,31 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Daniel\Desktop\Schule\Diplomarbeit\Ruderverein_ISTER\1819-5ahif-da-ruderverein-ister-dreamteam\Organisatorisches\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DaRepo3\1819-5ahif-da-ruderverein-ister-dreamteam\Organisatorisches\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{C06B61CB-C39C-49EE-9DCE-2F66FA921023}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E3ABC34-1D5C-472A-933F-4B22FDF68035}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="6960" xr2:uid="{B5A97CFA-7350-44BD-8E9B-90279A779877}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17250" windowHeight="6960" xr2:uid="{B5A97CFA-7350-44BD-8E9B-90279A779877}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="179021"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="41">
   <si>
     <t>Datum</t>
   </si>
@@ -145,6 +150,9 @@
   </si>
   <si>
     <t>Debugging, Datepicker Library + Ansicht für Hr. Schramm</t>
+  </si>
+  <si>
+    <t>Csv-Bulk Upload 1. Prototyp</t>
   </si>
 </sst>
 </file>
@@ -532,18 +540,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB4D4F47-197B-4479-93DD-E9C21F2B9FCB}">
-  <dimension ref="A1:H48"/>
+  <dimension ref="A1:H49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E44" sqref="E44"/>
+    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="67.6640625" customWidth="1"/>
+    <col min="3" max="3" width="67.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -561,7 +569,7 @@
       </c>
       <c r="H1" s="5"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>43279</v>
       </c>
@@ -581,7 +589,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>43279</v>
       </c>
@@ -596,14 +604,14 @@
       </c>
       <c r="G3" s="4">
         <f>SUMIF(B2:B150,"David",D2:D150)</f>
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H3">
         <f>SUMIF(B2:B150,"Daniel",D2:D150)</f>
         <v>85.5</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>43296</v>
       </c>
@@ -617,7 +625,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>43296</v>
       </c>
@@ -631,7 +639,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>43311</v>
       </c>
@@ -645,7 +653,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>43311</v>
       </c>
@@ -659,7 +667,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>43326</v>
       </c>
@@ -673,7 +681,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>43326</v>
       </c>
@@ -687,7 +695,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>43328</v>
       </c>
@@ -701,7 +709,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>43331</v>
       </c>
@@ -715,7 +723,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>43332</v>
       </c>
@@ -729,7 +737,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>43333</v>
       </c>
@@ -743,7 +751,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>43333</v>
       </c>
@@ -757,7 +765,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>43334</v>
       </c>
@@ -771,7 +779,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>43336</v>
       </c>
@@ -785,7 +793,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>43359</v>
       </c>
@@ -799,7 +807,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>43360</v>
       </c>
@@ -813,7 +821,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>43360</v>
       </c>
@@ -827,7 +835,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>43362</v>
       </c>
@@ -841,7 +849,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>43364</v>
       </c>
@@ -855,7 +863,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>43365</v>
       </c>
@@ -869,7 +877,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>43366</v>
       </c>
@@ -883,7 +891,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>43366</v>
       </c>
@@ -897,7 +905,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>43366</v>
       </c>
@@ -911,7 +919,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>43368</v>
       </c>
@@ -925,7 +933,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>43368</v>
       </c>
@@ -939,7 +947,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>43369</v>
       </c>
@@ -953,7 +961,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>43370</v>
       </c>
@@ -967,7 +975,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>43371</v>
       </c>
@@ -981,7 +989,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>43373</v>
       </c>
@@ -995,7 +1003,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>43374</v>
       </c>
@@ -1009,7 +1017,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>43374</v>
       </c>
@@ -1023,7 +1031,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>43375</v>
       </c>
@@ -1037,7 +1045,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>43375</v>
       </c>
@@ -1051,7 +1059,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>43376</v>
       </c>
@@ -1065,7 +1073,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>43377</v>
       </c>
@@ -1079,7 +1087,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>43378</v>
       </c>
@@ -1093,7 +1101,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <v>43378</v>
       </c>
@@ -1107,7 +1115,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <v>43380</v>
       </c>
@@ -1121,7 +1129,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
         <v>43382</v>
       </c>
@@ -1135,7 +1143,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
         <v>43389</v>
       </c>
@@ -1149,7 +1157,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
         <v>43391</v>
       </c>
@@ -1163,7 +1171,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
         <v>43391</v>
       </c>
@@ -1177,7 +1185,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
         <v>43394</v>
       </c>
@@ -1191,7 +1199,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
         <v>43401</v>
       </c>
@@ -1205,7 +1213,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
         <v>43402</v>
       </c>
@@ -1219,7 +1227,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
         <v>43403</v>
       </c>
@@ -1231,6 +1239,20 @@
       </c>
       <c r="D48">
         <v>7</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" s="2">
+        <v>43404</v>
+      </c>
+      <c r="B49" t="s">
+        <v>5</v>
+      </c>
+      <c r="C49" t="s">
+        <v>40</v>
+      </c>
+      <c r="D49">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Organisatorisches/Arbeitszeiten.xlsx
+++ b/Organisatorisches/Arbeitszeiten.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DaRepo3\1819-5ahif-da-ruderverein-ister-dreamteam\Organisatorisches\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E3ABC34-1D5C-472A-933F-4B22FDF68035}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBF6CAD1-4FB6-451D-B35E-B8881D76081F}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17250" windowHeight="6960" xr2:uid="{B5A97CFA-7350-44BD-8E9B-90279A779877}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="42">
   <si>
     <t>Datum</t>
   </si>
@@ -153,6 +153,9 @@
   </si>
   <si>
     <t>Csv-Bulk Upload 1. Prototyp</t>
+  </si>
+  <si>
+    <t>Added Foreign Key to Database + Auto Increments + Backup.sql generated</t>
   </si>
 </sst>
 </file>
@@ -540,10 +543,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB4D4F47-197B-4479-93DD-E9C21F2B9FCB}">
-  <dimension ref="A1:H49"/>
+  <dimension ref="A1:H50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="C51" sqref="C51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -604,7 +607,7 @@
       </c>
       <c r="G3" s="4">
         <f>SUMIF(B2:B150,"David",D2:D150)</f>
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="H3">
         <f>SUMIF(B2:B150,"Daniel",D2:D150)</f>
@@ -1252,6 +1255,20 @@
         <v>40</v>
       </c>
       <c r="D49">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" s="2">
+        <v>43404</v>
+      </c>
+      <c r="B50" t="s">
+        <v>5</v>
+      </c>
+      <c r="C50" t="s">
+        <v>41</v>
+      </c>
+      <c r="D50">
         <v>1</v>
       </c>
     </row>

--- a/Organisatorisches/Arbeitszeiten.xlsx
+++ b/Organisatorisches/Arbeitszeiten.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DaRepo3\1819-5ahif-da-ruderverein-ister-dreamteam\Organisatorisches\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBF6CAD1-4FB6-451D-B35E-B8881D76081F}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A86B5BDA-A72A-49A1-83B8-7FF26B4C20DF}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17250" windowHeight="6960" xr2:uid="{B5A97CFA-7350-44BD-8E9B-90279A779877}"/>
   </bookViews>
@@ -152,10 +152,10 @@
     <t>Debugging, Datepicker Library + Ansicht für Hr. Schramm</t>
   </si>
   <si>
-    <t>Csv-Bulk Upload 1. Prototyp</t>
-  </si>
-  <si>
     <t>Added Foreign Key to Database + Auto Increments + Backup.sql generated</t>
+  </si>
+  <si>
+    <t>Csv-Bulk Upload 1. Prototyp + Check, ob aktive Challenge, wenn ja, welche</t>
   </si>
 </sst>
 </file>
@@ -545,8 +545,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB4D4F47-197B-4479-93DD-E9C21F2B9FCB}">
   <dimension ref="A1:H50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="C51" sqref="C51"/>
+    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
+      <selection activeCell="D51" sqref="D51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -607,7 +607,7 @@
       </c>
       <c r="G3" s="4">
         <f>SUMIF(B2:B150,"David",D2:D150)</f>
-        <v>47</v>
+        <v>48.5</v>
       </c>
       <c r="H3">
         <f>SUMIF(B2:B150,"Daniel",D2:D150)</f>
@@ -1252,10 +1252,10 @@
         <v>5</v>
       </c>
       <c r="C49" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D49">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
@@ -1266,10 +1266,10 @@
         <v>5</v>
       </c>
       <c r="C50" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D50">
-        <v>1</v>
+        <v>1.5</v>
       </c>
     </row>
   </sheetData>

--- a/Organisatorisches/Arbeitszeiten.xlsx
+++ b/Organisatorisches/Arbeitszeiten.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DaRepo3\1819-5ahif-da-ruderverein-ister-dreamteam\Organisatorisches\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DaRepo4\1819-5ahif-da-ruderverein-ister-dreamteam\Organisatorisches\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A86B5BDA-A72A-49A1-83B8-7FF26B4C20DF}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A45DF48D-1AD2-498E-BCEC-524BAA342671}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17250" windowHeight="6960" xr2:uid="{B5A97CFA-7350-44BD-8E9B-90279A779877}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="43">
   <si>
     <t>Datum</t>
   </si>
@@ -156,6 +156,9 @@
   </si>
   <si>
     <t>Csv-Bulk Upload 1. Prototyp + Check, ob aktive Challenge, wenn ja, welche</t>
+  </si>
+  <si>
+    <t>Besprechung Zusammenlegung FrontEnd/Backend</t>
   </si>
 </sst>
 </file>
@@ -543,10 +546,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB4D4F47-197B-4479-93DD-E9C21F2B9FCB}">
-  <dimension ref="A1:H50"/>
+  <dimension ref="A1:H53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
-      <selection activeCell="D51" sqref="D51"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E41" sqref="E41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -607,11 +610,11 @@
       </c>
       <c r="G3" s="4">
         <f>SUMIF(B2:B150,"David",D2:D150)</f>
-        <v>48.5</v>
+        <v>50</v>
       </c>
       <c r="H3">
         <f>SUMIF(B2:B150,"Daniel",D2:D150)</f>
-        <v>85.5</v>
+        <v>87.5</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -1241,7 +1244,7 @@
         <v>39</v>
       </c>
       <c r="D48">
-        <v>7</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
@@ -1271,6 +1274,37 @@
       <c r="D50">
         <v>1.5</v>
       </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" s="2">
+        <v>43407</v>
+      </c>
+      <c r="B51" t="s">
+        <v>3</v>
+      </c>
+      <c r="C51" t="s">
+        <v>42</v>
+      </c>
+      <c r="D51">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" s="2">
+        <v>43407</v>
+      </c>
+      <c r="B52" t="s">
+        <v>5</v>
+      </c>
+      <c r="C52" t="s">
+        <v>42</v>
+      </c>
+      <c r="D52">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Organisatorisches/Arbeitszeiten.xlsx
+++ b/Organisatorisches/Arbeitszeiten.xlsx
@@ -1,36 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DaRepo4\1819-5ahif-da-ruderverein-ister-dreamteam\Organisatorisches\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Daniel\Desktop\Schule\Diplomarbeit\Ruderverein_ISTER\1819-5ahif-da-ruderverein-ister-dreamteam\Organisatorisches\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A45DF48D-1AD2-498E-BCEC-524BAA342671}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{1B26C765-E643-4BA8-A5A7-8125AD697C9A}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17250" windowHeight="6960" xr2:uid="{B5A97CFA-7350-44BD-8E9B-90279A779877}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="6960" xr2:uid="{B5A97CFA-7350-44BD-8E9B-90279A779877}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="179017"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="44">
   <si>
     <t>Datum</t>
   </si>
@@ -159,6 +154,9 @@
   </si>
   <si>
     <t>Besprechung Zusammenlegung FrontEnd/Backend</t>
+  </si>
+  <si>
+    <t>pdf-Ausgabe von Categories hinzugefügt</t>
   </si>
 </sst>
 </file>
@@ -549,15 +547,15 @@
   <dimension ref="A1:H53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E41" sqref="E41"/>
+      <selection activeCell="E50" sqref="E50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="67.7109375" customWidth="1"/>
+    <col min="3" max="3" width="67.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -575,7 +573,7 @@
       </c>
       <c r="H1" s="5"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>43279</v>
       </c>
@@ -595,7 +593,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>43279</v>
       </c>
@@ -614,10 +612,10 @@
       </c>
       <c r="H3">
         <f>SUMIF(B2:B150,"Daniel",D2:D150)</f>
-        <v>87.5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>43296</v>
       </c>
@@ -631,7 +629,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>43296</v>
       </c>
@@ -645,7 +643,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>43311</v>
       </c>
@@ -659,7 +657,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>43311</v>
       </c>
@@ -673,7 +671,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>43326</v>
       </c>
@@ -687,7 +685,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>43326</v>
       </c>
@@ -701,7 +699,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>43328</v>
       </c>
@@ -715,7 +713,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>43331</v>
       </c>
@@ -729,7 +727,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>43332</v>
       </c>
@@ -743,7 +741,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>43333</v>
       </c>
@@ -757,7 +755,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>43333</v>
       </c>
@@ -771,7 +769,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>43334</v>
       </c>
@@ -785,7 +783,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>43336</v>
       </c>
@@ -799,7 +797,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>43359</v>
       </c>
@@ -813,7 +811,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>43360</v>
       </c>
@@ -827,7 +825,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>43360</v>
       </c>
@@ -841,7 +839,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <v>43362</v>
       </c>
@@ -855,7 +853,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>43364</v>
       </c>
@@ -869,7 +867,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <v>43365</v>
       </c>
@@ -883,7 +881,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <v>43366</v>
       </c>
@@ -897,7 +895,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <v>43366</v>
       </c>
@@ -911,7 +909,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
         <v>43366</v>
       </c>
@@ -925,7 +923,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
         <v>43368</v>
       </c>
@@ -939,7 +937,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
         <v>43368</v>
       </c>
@@ -953,7 +951,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
         <v>43369</v>
       </c>
@@ -967,7 +965,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
         <v>43370</v>
       </c>
@@ -981,7 +979,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
         <v>43371</v>
       </c>
@@ -995,7 +993,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
         <v>43373</v>
       </c>
@@ -1009,7 +1007,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" s="2">
         <v>43374</v>
       </c>
@@ -1023,7 +1021,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" s="2">
         <v>43374</v>
       </c>
@@ -1037,7 +1035,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="2">
         <v>43375</v>
       </c>
@@ -1051,7 +1049,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" s="2">
         <v>43375</v>
       </c>
@@ -1065,7 +1063,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" s="2">
         <v>43376</v>
       </c>
@@ -1079,7 +1077,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" s="2">
         <v>43377</v>
       </c>
@@ -1093,7 +1091,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" s="2">
         <v>43378</v>
       </c>
@@ -1107,7 +1105,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" s="2">
         <v>43378</v>
       </c>
@@ -1121,7 +1119,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" s="2">
         <v>43380</v>
       </c>
@@ -1135,7 +1133,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" s="2">
         <v>43382</v>
       </c>
@@ -1149,7 +1147,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" s="2">
         <v>43389</v>
       </c>
@@ -1163,7 +1161,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" s="2">
         <v>43391</v>
       </c>
@@ -1177,7 +1175,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" s="2">
         <v>43391</v>
       </c>
@@ -1191,7 +1189,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" s="2">
         <v>43394</v>
       </c>
@@ -1205,7 +1203,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" s="2">
         <v>43401</v>
       </c>
@@ -1219,7 +1217,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" s="2">
         <v>43402</v>
       </c>
@@ -1233,7 +1231,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" s="2">
         <v>43403</v>
       </c>
@@ -1247,7 +1245,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" s="2">
         <v>43404</v>
       </c>
@@ -1261,7 +1259,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" s="2">
         <v>43404</v>
       </c>
@@ -1275,7 +1273,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" s="2">
         <v>43407</v>
       </c>
@@ -1289,7 +1287,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" s="2">
         <v>43407</v>
       </c>
@@ -1303,8 +1301,19 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" s="2"/>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A53" s="2">
+        <v>43416</v>
+      </c>
+      <c r="B53" t="s">
+        <v>3</v>
+      </c>
+      <c r="C53" t="s">
+        <v>43</v>
+      </c>
+      <c r="D53">
+        <v>2.5</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Organisatorisches/Arbeitszeiten.xlsx
+++ b/Organisatorisches/Arbeitszeiten.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Daniel\Desktop\Schule\Diplomarbeit\Ruderverein_ISTER\1819-5ahif-da-ruderverein-ister-dreamteam\Organisatorisches\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{1B26C765-E643-4BA8-A5A7-8125AD697C9A}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{14015BEF-6E86-4ECC-B53C-D2A32BE8D7A1}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="6960" xr2:uid="{B5A97CFA-7350-44BD-8E9B-90279A779877}"/>
   </bookViews>
@@ -546,8 +546,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB4D4F47-197B-4479-93DD-E9C21F2B9FCB}">
   <dimension ref="A1:H53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E50" sqref="E50"/>
+    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="D53" sqref="D53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -612,7 +612,7 @@
       </c>
       <c r="H3">
         <f>SUMIF(B2:B150,"Daniel",D2:D150)</f>
-        <v>90</v>
+        <v>90.5</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
@@ -1312,7 +1312,7 @@
         <v>43</v>
       </c>
       <c r="D53">
-        <v>2.5</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/Organisatorisches/Arbeitszeiten.xlsx
+++ b/Organisatorisches/Arbeitszeiten.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DaRepo4\1819-5ahif-da-ruderverein-ister-dreamteam\Organisatorisches\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A45DF48D-1AD2-498E-BCEC-524BAA342671}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{816D93B6-E0E0-4545-8617-19FDC8AE32A9}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17250" windowHeight="6960" xr2:uid="{B5A97CFA-7350-44BD-8E9B-90279A779877}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="44">
   <si>
     <t>Datum</t>
   </si>
@@ -159,6 +159,9 @@
   </si>
   <si>
     <t>Besprechung Zusammenlegung FrontEnd/Backend</t>
+  </si>
+  <si>
+    <t>Backend funktionen an Frontend anpassen</t>
   </si>
 </sst>
 </file>
@@ -546,10 +549,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB4D4F47-197B-4479-93DD-E9C21F2B9FCB}">
-  <dimension ref="A1:H53"/>
+  <dimension ref="A1:H54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E41" sqref="E41"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="D55" sqref="D55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -610,7 +613,7 @@
       </c>
       <c r="G3" s="4">
         <f>SUMIF(B2:B150,"David",D2:D150)</f>
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="H3">
         <f>SUMIF(B2:B150,"Daniel",D2:D150)</f>
@@ -1304,7 +1307,32 @@
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" s="2"/>
+      <c r="A53" s="2">
+        <v>43415</v>
+      </c>
+      <c r="B53" t="s">
+        <v>5</v>
+      </c>
+      <c r="C53" t="s">
+        <v>43</v>
+      </c>
+      <c r="D53">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" s="2">
+        <v>43416</v>
+      </c>
+      <c r="B54" t="s">
+        <v>5</v>
+      </c>
+      <c r="C54" t="s">
+        <v>43</v>
+      </c>
+      <c r="D54">
+        <v>5</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Organisatorisches/Arbeitszeiten.xlsx
+++ b/Organisatorisches/Arbeitszeiten.xlsx
@@ -1,36 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DaRepo4\1819-5ahif-da-ruderverein-ister-dreamteam\Organisatorisches\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Daniel\Desktop\Schule\Diplomarbeit\Ruderverein_ISTER\1819-5ahif-da-ruderverein-ister-dreamteam\Organisatorisches\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{816D93B6-E0E0-4545-8617-19FDC8AE32A9}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{82FE1A7F-BF5D-4B31-A08A-1317581E993D}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17250" windowHeight="6960" xr2:uid="{B5A97CFA-7350-44BD-8E9B-90279A779877}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="6960" xr2:uid="{B5A97CFA-7350-44BD-8E9B-90279A779877}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="179017"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="45">
   <si>
     <t>Datum</t>
   </si>
@@ -162,6 +157,9 @@
   </si>
   <si>
     <t>Backend funktionen an Frontend anpassen</t>
+  </si>
+  <si>
+    <t>WebsiteCountdown, pdf Output verfeinert, autpaging, page numbering, reworked testserver</t>
   </si>
 </sst>
 </file>
@@ -549,18 +547,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB4D4F47-197B-4479-93DD-E9C21F2B9FCB}">
-  <dimension ref="A1:H54"/>
+  <dimension ref="A1:H55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="D55" sqref="D55"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="D48" sqref="D48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="67.7109375" customWidth="1"/>
+    <col min="3" max="3" width="67.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -578,7 +576,7 @@
       </c>
       <c r="H1" s="5"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>43279</v>
       </c>
@@ -598,7 +596,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>43279</v>
       </c>
@@ -617,10 +615,10 @@
       </c>
       <c r="H3">
         <f>SUMIF(B2:B150,"Daniel",D2:D150)</f>
-        <v>87.5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+        <v>93.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>43296</v>
       </c>
@@ -634,7 +632,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>43296</v>
       </c>
@@ -648,7 +646,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>43311</v>
       </c>
@@ -662,7 +660,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>43311</v>
       </c>
@@ -676,7 +674,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>43326</v>
       </c>
@@ -690,7 +688,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>43326</v>
       </c>
@@ -704,7 +702,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>43328</v>
       </c>
@@ -718,7 +716,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>43331</v>
       </c>
@@ -732,7 +730,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>43332</v>
       </c>
@@ -746,7 +744,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>43333</v>
       </c>
@@ -760,7 +758,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>43333</v>
       </c>
@@ -774,7 +772,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>43334</v>
       </c>
@@ -788,7 +786,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>43336</v>
       </c>
@@ -802,7 +800,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>43359</v>
       </c>
@@ -816,7 +814,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>43360</v>
       </c>
@@ -830,7 +828,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>43360</v>
       </c>
@@ -844,7 +842,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <v>43362</v>
       </c>
@@ -858,7 +856,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>43364</v>
       </c>
@@ -872,7 +870,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <v>43365</v>
       </c>
@@ -886,7 +884,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <v>43366</v>
       </c>
@@ -900,7 +898,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <v>43366</v>
       </c>
@@ -914,7 +912,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
         <v>43366</v>
       </c>
@@ -928,7 +926,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
         <v>43368</v>
       </c>
@@ -942,7 +940,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
         <v>43368</v>
       </c>
@@ -956,7 +954,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
         <v>43369</v>
       </c>
@@ -970,7 +968,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
         <v>43370</v>
       </c>
@@ -984,7 +982,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
         <v>43371</v>
       </c>
@@ -998,7 +996,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
         <v>43373</v>
       </c>
@@ -1012,7 +1010,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" s="2">
         <v>43374</v>
       </c>
@@ -1026,7 +1024,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" s="2">
         <v>43374</v>
       </c>
@@ -1040,7 +1038,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="2">
         <v>43375</v>
       </c>
@@ -1054,7 +1052,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" s="2">
         <v>43375</v>
       </c>
@@ -1068,7 +1066,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" s="2">
         <v>43376</v>
       </c>
@@ -1082,7 +1080,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" s="2">
         <v>43377</v>
       </c>
@@ -1096,7 +1094,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" s="2">
         <v>43378</v>
       </c>
@@ -1110,7 +1108,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" s="2">
         <v>43378</v>
       </c>
@@ -1124,7 +1122,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" s="2">
         <v>43380</v>
       </c>
@@ -1138,7 +1136,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" s="2">
         <v>43382</v>
       </c>
@@ -1152,7 +1150,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" s="2">
         <v>43389</v>
       </c>
@@ -1166,7 +1164,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" s="2">
         <v>43391</v>
       </c>
@@ -1180,7 +1178,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" s="2">
         <v>43391</v>
       </c>
@@ -1194,7 +1192,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" s="2">
         <v>43394</v>
       </c>
@@ -1208,7 +1206,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" s="2">
         <v>43401</v>
       </c>
@@ -1222,7 +1220,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" s="2">
         <v>43402</v>
       </c>
@@ -1236,7 +1234,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" s="2">
         <v>43403</v>
       </c>
@@ -1250,7 +1248,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" s="2">
         <v>43404</v>
       </c>
@@ -1264,7 +1262,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" s="2">
         <v>43404</v>
       </c>
@@ -1278,7 +1276,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" s="2">
         <v>43407</v>
       </c>
@@ -1292,7 +1290,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" s="2">
         <v>43407</v>
       </c>
@@ -1306,7 +1304,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" s="2">
         <v>43415</v>
       </c>
@@ -1320,7 +1318,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" s="2">
         <v>43416</v>
       </c>
@@ -1332,6 +1330,20 @@
       </c>
       <c r="D54">
         <v>5</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A55" s="2">
+        <v>43416</v>
+      </c>
+      <c r="B55" t="s">
+        <v>3</v>
+      </c>
+      <c r="C55" t="s">
+        <v>44</v>
+      </c>
+      <c r="D55">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/Organisatorisches/Arbeitszeiten.xlsx
+++ b/Organisatorisches/Arbeitszeiten.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Daniel\Desktop\Schule\Diplomarbeit\Ruderverein_ISTER\1819-5ahif-da-ruderverein-ister-dreamteam\Organisatorisches\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{82FE1A7F-BF5D-4B31-A08A-1317581E993D}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{0E595100-3EB1-4152-8472-3B5BFBF6AD50}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="6960" xr2:uid="{B5A97CFA-7350-44BD-8E9B-90279A779877}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="46">
   <si>
     <t>Datum</t>
   </si>
@@ -160,6 +160,9 @@
   </si>
   <si>
     <t>WebsiteCountdown, pdf Output verfeinert, autpaging, page numbering, reworked testserver</t>
+  </si>
+  <si>
+    <t>Reworking Layers Separation</t>
   </si>
 </sst>
 </file>
@@ -547,10 +550,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB4D4F47-197B-4479-93DD-E9C21F2B9FCB}">
-  <dimension ref="A1:H55"/>
+  <dimension ref="A1:H57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="D48" sqref="D48"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="D57" sqref="D57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -615,7 +618,7 @@
       </c>
       <c r="H3">
         <f>SUMIF(B2:B150,"Daniel",D2:D150)</f>
-        <v>93.5</v>
+        <v>100.5</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
@@ -1344,6 +1347,34 @@
       </c>
       <c r="D55">
         <v>6</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A56" s="2">
+        <v>43417</v>
+      </c>
+      <c r="B56" t="s">
+        <v>3</v>
+      </c>
+      <c r="C56" t="s">
+        <v>45</v>
+      </c>
+      <c r="D56">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A57" s="2">
+        <v>43418</v>
+      </c>
+      <c r="B57" t="s">
+        <v>3</v>
+      </c>
+      <c r="C57" t="s">
+        <v>45</v>
+      </c>
+      <c r="D57">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/Organisatorisches/Arbeitszeiten.xlsx
+++ b/Organisatorisches/Arbeitszeiten.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Daniel\Desktop\Schule\Diplomarbeit\Ruderverein_ISTER\1819-5ahif-da-ruderverein-ister-dreamteam\Organisatorisches\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{0E595100-3EB1-4152-8472-3B5BFBF6AD50}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{06527A78-4DBB-4D3D-A754-0B57E0C05203}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="6960" xr2:uid="{B5A97CFA-7350-44BD-8E9B-90279A779877}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="47">
   <si>
     <t>Datum</t>
   </si>
@@ -163,6 +163,9 @@
   </si>
   <si>
     <t>Reworking Layers Separation</t>
+  </si>
+  <si>
+    <t>added pdf Creator</t>
   </si>
 </sst>
 </file>
@@ -550,10 +553,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB4D4F47-197B-4479-93DD-E9C21F2B9FCB}">
-  <dimension ref="A1:H57"/>
+  <dimension ref="A1:H58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="D57" sqref="D57"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C53" sqref="C53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -618,7 +621,7 @@
       </c>
       <c r="H3">
         <f>SUMIF(B2:B150,"Daniel",D2:D150)</f>
-        <v>100.5</v>
+        <v>101.5</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
@@ -1375,6 +1378,20 @@
       </c>
       <c r="D57">
         <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A58" s="2">
+        <v>43419</v>
+      </c>
+      <c r="B58" t="s">
+        <v>3</v>
+      </c>
+      <c r="C58" t="s">
+        <v>46</v>
+      </c>
+      <c r="D58">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Organisatorisches/Arbeitszeiten.xlsx
+++ b/Organisatorisches/Arbeitszeiten.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Daniel\Desktop\Schule\Diplomarbeit\Ruderverein_ISTER\1819-5ahif-da-ruderverein-ister-dreamteam\Organisatorisches\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{06527A78-4DBB-4D3D-A754-0B57E0C05203}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{93F515B0-5615-4564-8893-5D91A25A7D12}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="6960" xr2:uid="{B5A97CFA-7350-44BD-8E9B-90279A779877}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="48">
   <si>
     <t>Datum</t>
   </si>
@@ -165,7 +165,10 @@
     <t>Reworking Layers Separation</t>
   </si>
   <si>
-    <t>added pdf Creator</t>
+    <t>styling adjustments</t>
+  </si>
+  <si>
+    <t>added pdf Creator for Logic Separation</t>
   </si>
 </sst>
 </file>
@@ -553,10 +556,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB4D4F47-197B-4479-93DD-E9C21F2B9FCB}">
-  <dimension ref="A1:H58"/>
+  <dimension ref="A1:H59"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C53" sqref="C53"/>
+    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
+      <selection activeCell="C58" sqref="C58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -621,7 +624,7 @@
       </c>
       <c r="H3">
         <f>SUMIF(B2:B150,"Daniel",D2:D150)</f>
-        <v>101.5</v>
+        <v>102.5</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
@@ -1388,9 +1391,23 @@
         <v>3</v>
       </c>
       <c r="C58" t="s">
+        <v>47</v>
+      </c>
+      <c r="D58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A59" s="2">
+        <v>43419</v>
+      </c>
+      <c r="B59" t="s">
+        <v>3</v>
+      </c>
+      <c r="C59" t="s">
         <v>46</v>
       </c>
-      <c r="D58">
+      <c r="D59">
         <v>1</v>
       </c>
     </row>

--- a/Organisatorisches/Arbeitszeiten.xlsx
+++ b/Organisatorisches/Arbeitszeiten.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Daniel\Desktop\Schule\Diplomarbeit\Ruderverein_ISTER\1819-5ahif-da-ruderverein-ister-dreamteam\Organisatorisches\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{93F515B0-5615-4564-8893-5D91A25A7D12}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{7FC0B706-1D3B-4F72-87F3-E674C6FA7CCD}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="6960" xr2:uid="{B5A97CFA-7350-44BD-8E9B-90279A779877}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="48">
   <si>
     <t>Datum</t>
   </si>
@@ -556,10 +556,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB4D4F47-197B-4479-93DD-E9C21F2B9FCB}">
-  <dimension ref="A1:H59"/>
+  <dimension ref="A1:H60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
-      <selection activeCell="C58" sqref="C58"/>
+    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="E58" sqref="E58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -624,7 +624,7 @@
       </c>
       <c r="H3">
         <f>SUMIF(B2:B150,"Daniel",D2:D150)</f>
-        <v>102.5</v>
+        <v>104</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
@@ -1409,6 +1409,20 @@
       </c>
       <c r="D59">
         <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A60" s="2">
+        <v>43420</v>
+      </c>
+      <c r="B60" t="s">
+        <v>3</v>
+      </c>
+      <c r="C60" t="s">
+        <v>46</v>
+      </c>
+      <c r="D60">
+        <v>1.5</v>
       </c>
     </row>
   </sheetData>

--- a/Organisatorisches/Arbeitszeiten.xlsx
+++ b/Organisatorisches/Arbeitszeiten.xlsx
@@ -1,31 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Daniel\Desktop\Schule\Diplomarbeit\Ruderverein_ISTER\1819-5ahif-da-ruderverein-ister-dreamteam\Organisatorisches\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DaRepo5\1819-5ahif-da-ruderverein-ister-dreamteam\Organisatorisches\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{7FC0B706-1D3B-4F72-87F3-E674C6FA7CCD}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B471A86B-DD09-447A-B8BE-540161646332}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="6960" xr2:uid="{B5A97CFA-7350-44BD-8E9B-90279A779877}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17250" windowHeight="6960" xr2:uid="{B5A97CFA-7350-44BD-8E9B-90279A779877}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="179021"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="48">
   <si>
     <t>Datum</t>
   </si>
@@ -556,18 +561,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB4D4F47-197B-4479-93DD-E9C21F2B9FCB}">
-  <dimension ref="A1:H60"/>
+  <dimension ref="A1:H63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="E58" sqref="E58"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="D64" sqref="D64"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="67.6640625" customWidth="1"/>
+    <col min="3" max="3" width="67.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -585,7 +590,7 @@
       </c>
       <c r="H1" s="5"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>43279</v>
       </c>
@@ -605,7 +610,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>43279</v>
       </c>
@@ -620,14 +625,14 @@
       </c>
       <c r="G3" s="4">
         <f>SUMIF(B2:B150,"David",D2:D150)</f>
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="H3">
         <f>SUMIF(B2:B150,"Daniel",D2:D150)</f>
         <v>104</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>43296</v>
       </c>
@@ -641,7 +646,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>43296</v>
       </c>
@@ -655,7 +660,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>43311</v>
       </c>
@@ -669,7 +674,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>43311</v>
       </c>
@@ -683,7 +688,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>43326</v>
       </c>
@@ -697,7 +702,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>43326</v>
       </c>
@@ -711,7 +716,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>43328</v>
       </c>
@@ -725,7 +730,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>43331</v>
       </c>
@@ -739,7 +744,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>43332</v>
       </c>
@@ -753,7 +758,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>43333</v>
       </c>
@@ -767,7 +772,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>43333</v>
       </c>
@@ -781,7 +786,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>43334</v>
       </c>
@@ -795,7 +800,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>43336</v>
       </c>
@@ -809,7 +814,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>43359</v>
       </c>
@@ -823,7 +828,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>43360</v>
       </c>
@@ -837,7 +842,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>43360</v>
       </c>
@@ -851,7 +856,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>43362</v>
       </c>
@@ -865,7 +870,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>43364</v>
       </c>
@@ -879,7 +884,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>43365</v>
       </c>
@@ -893,7 +898,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>43366</v>
       </c>
@@ -907,7 +912,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>43366</v>
       </c>
@@ -921,7 +926,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>43366</v>
       </c>
@@ -935,7 +940,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>43368</v>
       </c>
@@ -949,7 +954,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>43368</v>
       </c>
@@ -963,7 +968,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>43369</v>
       </c>
@@ -977,7 +982,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>43370</v>
       </c>
@@ -991,7 +996,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>43371</v>
       </c>
@@ -1005,7 +1010,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>43373</v>
       </c>
@@ -1019,7 +1024,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>43374</v>
       </c>
@@ -1033,7 +1038,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>43374</v>
       </c>
@@ -1047,7 +1052,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>43375</v>
       </c>
@@ -1061,7 +1066,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>43375</v>
       </c>
@@ -1075,7 +1080,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>43376</v>
       </c>
@@ -1089,7 +1094,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>43377</v>
       </c>
@@ -1103,7 +1108,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>43378</v>
       </c>
@@ -1117,7 +1122,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <v>43378</v>
       </c>
@@ -1131,7 +1136,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <v>43380</v>
       </c>
@@ -1145,7 +1150,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
         <v>43382</v>
       </c>
@@ -1159,7 +1164,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
         <v>43389</v>
       </c>
@@ -1173,7 +1178,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
         <v>43391</v>
       </c>
@@ -1187,7 +1192,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
         <v>43391</v>
       </c>
@@ -1201,7 +1206,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
         <v>43394</v>
       </c>
@@ -1215,7 +1220,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
         <v>43401</v>
       </c>
@@ -1229,7 +1234,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
         <v>43402</v>
       </c>
@@ -1243,7 +1248,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
         <v>43403</v>
       </c>
@@ -1257,7 +1262,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
         <v>43404</v>
       </c>
@@ -1271,7 +1276,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
         <v>43404</v>
       </c>
@@ -1285,7 +1290,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
         <v>43407</v>
       </c>
@@ -1299,7 +1304,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="2">
         <v>43407</v>
       </c>
@@ -1313,7 +1318,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="2">
         <v>43415</v>
       </c>
@@ -1327,7 +1332,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="2">
         <v>43416</v>
       </c>
@@ -1341,7 +1346,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
         <v>43416</v>
       </c>
@@ -1355,7 +1360,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="2">
         <v>43417</v>
       </c>
@@ -1369,7 +1374,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="2">
         <v>43418</v>
       </c>
@@ -1383,7 +1388,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="2">
         <v>43419</v>
       </c>
@@ -1397,7 +1402,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="2">
         <v>43419</v>
       </c>
@@ -1411,7 +1416,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="2">
         <v>43420</v>
       </c>
@@ -1423,6 +1428,48 @@
       </c>
       <c r="D60">
         <v>1.5</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" s="2">
+        <v>43419</v>
+      </c>
+      <c r="B61" t="s">
+        <v>5</v>
+      </c>
+      <c r="C61" t="s">
+        <v>43</v>
+      </c>
+      <c r="D61">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" s="2">
+        <v>43421</v>
+      </c>
+      <c r="B62" t="s">
+        <v>5</v>
+      </c>
+      <c r="C62" t="s">
+        <v>43</v>
+      </c>
+      <c r="D62">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" s="2">
+        <v>43422</v>
+      </c>
+      <c r="B63" t="s">
+        <v>5</v>
+      </c>
+      <c r="C63" t="s">
+        <v>43</v>
+      </c>
+      <c r="D63">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/Organisatorisches/Arbeitszeiten.xlsx
+++ b/Organisatorisches/Arbeitszeiten.xlsx
@@ -1,36 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DaRepo5\1819-5ahif-da-ruderverein-ister-dreamteam\Organisatorisches\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Daniel\Desktop\Schule\Diplomarbeit\Ruderverein_ISTER\1819-5ahif-da-ruderverein-ister-dreamteam\Organisatorisches\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B471A86B-DD09-447A-B8BE-540161646332}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{08E09C2F-07C7-4A16-9EA3-27D5A3DA64BC}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17250" windowHeight="6960" xr2:uid="{B5A97CFA-7350-44BD-8E9B-90279A779877}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="6960" xr2:uid="{B5A97CFA-7350-44BD-8E9B-90279A779877}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="179017"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="49">
   <si>
     <t>Datum</t>
   </si>
@@ -174,6 +169,9 @@
   </si>
   <si>
     <t>added pdf Creator for Logic Separation</t>
+  </si>
+  <si>
+    <t>styling changes</t>
   </si>
 </sst>
 </file>
@@ -561,18 +559,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB4D4F47-197B-4479-93DD-E9C21F2B9FCB}">
-  <dimension ref="A1:H63"/>
+  <dimension ref="A1:H67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="D64" sqref="D64"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G59" sqref="G59"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="67.7109375" customWidth="1"/>
+    <col min="3" max="3" width="67.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -590,7 +588,7 @@
       </c>
       <c r="H1" s="5"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>43279</v>
       </c>
@@ -610,7 +608,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>43279</v>
       </c>
@@ -629,10 +627,10 @@
       </c>
       <c r="H3">
         <f>SUMIF(B2:B150,"Daniel",D2:D150)</f>
-        <v>104</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>43296</v>
       </c>
@@ -646,7 +644,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>43296</v>
       </c>
@@ -660,7 +658,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>43311</v>
       </c>
@@ -674,7 +672,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>43311</v>
       </c>
@@ -688,7 +686,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>43326</v>
       </c>
@@ -702,7 +700,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>43326</v>
       </c>
@@ -716,7 +714,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>43328</v>
       </c>
@@ -730,7 +728,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>43331</v>
       </c>
@@ -744,7 +742,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>43332</v>
       </c>
@@ -758,7 +756,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>43333</v>
       </c>
@@ -772,7 +770,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>43333</v>
       </c>
@@ -786,7 +784,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>43334</v>
       </c>
@@ -800,7 +798,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>43336</v>
       </c>
@@ -814,7 +812,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>43359</v>
       </c>
@@ -828,7 +826,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>43360</v>
       </c>
@@ -842,7 +840,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>43360</v>
       </c>
@@ -856,7 +854,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <v>43362</v>
       </c>
@@ -870,7 +868,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>43364</v>
       </c>
@@ -884,7 +882,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <v>43365</v>
       </c>
@@ -898,7 +896,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <v>43366</v>
       </c>
@@ -912,7 +910,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <v>43366</v>
       </c>
@@ -926,7 +924,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
         <v>43366</v>
       </c>
@@ -940,7 +938,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
         <v>43368</v>
       </c>
@@ -954,7 +952,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
         <v>43368</v>
       </c>
@@ -968,7 +966,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
         <v>43369</v>
       </c>
@@ -982,7 +980,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
         <v>43370</v>
       </c>
@@ -996,7 +994,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
         <v>43371</v>
       </c>
@@ -1010,7 +1008,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
         <v>43373</v>
       </c>
@@ -1024,7 +1022,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" s="2">
         <v>43374</v>
       </c>
@@ -1038,7 +1036,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" s="2">
         <v>43374</v>
       </c>
@@ -1052,7 +1050,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="2">
         <v>43375</v>
       </c>
@@ -1066,7 +1064,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" s="2">
         <v>43375</v>
       </c>
@@ -1080,7 +1078,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" s="2">
         <v>43376</v>
       </c>
@@ -1094,7 +1092,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" s="2">
         <v>43377</v>
       </c>
@@ -1108,7 +1106,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" s="2">
         <v>43378</v>
       </c>
@@ -1122,7 +1120,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" s="2">
         <v>43378</v>
       </c>
@@ -1136,7 +1134,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" s="2">
         <v>43380</v>
       </c>
@@ -1150,7 +1148,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" s="2">
         <v>43382</v>
       </c>
@@ -1164,7 +1162,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" s="2">
         <v>43389</v>
       </c>
@@ -1178,7 +1176,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" s="2">
         <v>43391</v>
       </c>
@@ -1192,7 +1190,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" s="2">
         <v>43391</v>
       </c>
@@ -1206,7 +1204,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" s="2">
         <v>43394</v>
       </c>
@@ -1220,7 +1218,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" s="2">
         <v>43401</v>
       </c>
@@ -1234,7 +1232,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" s="2">
         <v>43402</v>
       </c>
@@ -1248,7 +1246,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" s="2">
         <v>43403</v>
       </c>
@@ -1262,7 +1260,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" s="2">
         <v>43404</v>
       </c>
@@ -1276,7 +1274,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" s="2">
         <v>43404</v>
       </c>
@@ -1290,7 +1288,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" s="2">
         <v>43407</v>
       </c>
@@ -1304,7 +1302,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" s="2">
         <v>43407</v>
       </c>
@@ -1318,7 +1316,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" s="2">
         <v>43415</v>
       </c>
@@ -1332,7 +1330,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" s="2">
         <v>43416</v>
       </c>
@@ -1346,7 +1344,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" s="2">
         <v>43416</v>
       </c>
@@ -1360,7 +1358,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" s="2">
         <v>43417</v>
       </c>
@@ -1374,7 +1372,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" s="2">
         <v>43418</v>
       </c>
@@ -1388,7 +1386,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" s="2">
         <v>43419</v>
       </c>
@@ -1402,7 +1400,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" s="2">
         <v>43419</v>
       </c>
@@ -1416,7 +1414,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" s="2">
         <v>43420</v>
       </c>
@@ -1430,7 +1428,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" s="2">
         <v>43419</v>
       </c>
@@ -1444,7 +1442,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" s="2">
         <v>43421</v>
       </c>
@@ -1458,7 +1456,7 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63" s="2">
         <v>43422</v>
       </c>
@@ -1470,6 +1468,62 @@
       </c>
       <c r="D63">
         <v>9</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A64" s="2">
+        <v>43424</v>
+      </c>
+      <c r="B64" t="s">
+        <v>3</v>
+      </c>
+      <c r="C64" t="s">
+        <v>48</v>
+      </c>
+      <c r="D64">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A65" s="2">
+        <v>43433</v>
+      </c>
+      <c r="B65" t="s">
+        <v>3</v>
+      </c>
+      <c r="C65" t="s">
+        <v>48</v>
+      </c>
+      <c r="D65">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A66" s="2">
+        <v>43434</v>
+      </c>
+      <c r="B66" t="s">
+        <v>3</v>
+      </c>
+      <c r="C66" t="s">
+        <v>48</v>
+      </c>
+      <c r="D66">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A67" s="2">
+        <v>43435</v>
+      </c>
+      <c r="B67" t="s">
+        <v>3</v>
+      </c>
+      <c r="C67" t="s">
+        <v>48</v>
+      </c>
+      <c r="D67">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/Organisatorisches/Arbeitszeiten.xlsx
+++ b/Organisatorisches/Arbeitszeiten.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Daniel\Desktop\Schule\Diplomarbeit\Ruderverein_ISTER\1819-5ahif-da-ruderverein-ister-dreamteam\Organisatorisches\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{08E09C2F-07C7-4A16-9EA3-27D5A3DA64BC}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{5637E691-FC15-4213-A452-BEB97B1CC5E5}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="6960" xr2:uid="{B5A97CFA-7350-44BD-8E9B-90279A779877}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="49">
   <si>
     <t>Datum</t>
   </si>
@@ -559,10 +559,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB4D4F47-197B-4479-93DD-E9C21F2B9FCB}">
-  <dimension ref="A1:H67"/>
+  <dimension ref="A1:H71"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G59" sqref="G59"/>
+      <selection activeCell="F66" sqref="F66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -627,7 +627,7 @@
       </c>
       <c r="H3">
         <f>SUMIF(B2:B150,"Daniel",D2:D150)</f>
-        <v>115</v>
+        <v>125</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
@@ -1525,6 +1525,51 @@
       <c r="D67">
         <v>3</v>
       </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A68" s="2">
+        <v>43441</v>
+      </c>
+      <c r="B68" t="s">
+        <v>3</v>
+      </c>
+      <c r="C68" t="s">
+        <v>48</v>
+      </c>
+      <c r="D68">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A69" s="2">
+        <v>43444</v>
+      </c>
+      <c r="B69" t="s">
+        <v>3</v>
+      </c>
+      <c r="C69" t="s">
+        <v>48</v>
+      </c>
+      <c r="D69">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A70" s="2">
+        <v>43445</v>
+      </c>
+      <c r="B70" t="s">
+        <v>3</v>
+      </c>
+      <c r="C70" t="s">
+        <v>48</v>
+      </c>
+      <c r="D70">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A71" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Organisatorisches/Arbeitszeiten.xlsx
+++ b/Organisatorisches/Arbeitszeiten.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Daniel\Desktop\Schule\Diplomarbeit\Ruderverein_ISTER\1819-5ahif-da-ruderverein-ister-dreamteam\Organisatorisches\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{5637E691-FC15-4213-A452-BEB97B1CC5E5}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{3760736D-811A-45C9-B2D2-775C46CF4501}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="6960" xr2:uid="{B5A97CFA-7350-44BD-8E9B-90279A779877}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="50">
   <si>
     <t>Datum</t>
   </si>
@@ -172,6 +172,9 @@
   </si>
   <si>
     <t>styling changes</t>
+  </si>
+  <si>
+    <t>123 input form for clubs + participants, start drag &amp; drop</t>
   </si>
 </sst>
 </file>
@@ -562,7 +565,7 @@
   <dimension ref="A1:H71"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F66" sqref="F66"/>
+      <selection activeCell="F69" sqref="F69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -627,7 +630,7 @@
       </c>
       <c r="H3">
         <f>SUMIF(B2:B150,"Daniel",D2:D150)</f>
-        <v>125</v>
+        <v>130</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
@@ -1569,7 +1572,18 @@
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A71" s="2"/>
+      <c r="A71" s="2">
+        <v>43446</v>
+      </c>
+      <c r="B71" t="s">
+        <v>3</v>
+      </c>
+      <c r="C71" t="s">
+        <v>49</v>
+      </c>
+      <c r="D71">
+        <v>5</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Organisatorisches/Arbeitszeiten.xlsx
+++ b/Organisatorisches/Arbeitszeiten.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Daniel\Desktop\Schule\Diplomarbeit\Ruderverein_ISTER\1819-5ahif-da-ruderverein-ister-dreamteam\Organisatorisches\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{3760736D-811A-45C9-B2D2-775C46CF4501}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{1CEE54D1-16AD-4238-8F48-26F2335A443B}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="6960" xr2:uid="{B5A97CFA-7350-44BD-8E9B-90279A779877}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="51">
   <si>
     <t>Datum</t>
   </si>
@@ -175,6 +175,9 @@
   </si>
   <si>
     <t>123 input form for clubs + participants, start drag &amp; drop</t>
+  </si>
+  <si>
+    <t>fixed button color after click + pdf layout</t>
   </si>
 </sst>
 </file>
@@ -565,7 +568,7 @@
   <dimension ref="A1:H71"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F69" sqref="F69"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -625,12 +628,12 @@
         <v>3</v>
       </c>
       <c r="G3" s="4">
-        <f>SUMIF(B2:B150,"David",D2:D150)</f>
+        <f>SUMIF(B2:B149,"David",D2:D149)</f>
         <v>80</v>
       </c>
       <c r="H3">
-        <f>SUMIF(B2:B150,"Daniel",D2:D150)</f>
-        <v>130</v>
+        <f>SUMIF(B2:B149,"Daniel",D2:D149)</f>
+        <v>133</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
@@ -1559,30 +1562,30 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70" s="2">
-        <v>43445</v>
+        <v>43446</v>
       </c>
       <c r="B70" t="s">
         <v>3</v>
       </c>
       <c r="C70" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D70">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71" s="2">
-        <v>43446</v>
+        <v>43447</v>
       </c>
       <c r="B71" t="s">
         <v>3</v>
       </c>
       <c r="C71" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D71">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/Organisatorisches/Arbeitszeiten.xlsx
+++ b/Organisatorisches/Arbeitszeiten.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Daniel\Desktop\Schule\Diplomarbeit\Ruderverein_ISTER\1819-5ahif-da-ruderverein-ister-dreamteam\Organisatorisches\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{1CEE54D1-16AD-4238-8F48-26F2335A443B}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{62D3033B-7F91-4260-ADAD-A62111F428AB}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="6960" xr2:uid="{B5A97CFA-7350-44BD-8E9B-90279A779877}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="52">
   <si>
     <t>Datum</t>
   </si>
@@ -178,6 +178,9 @@
   </si>
   <si>
     <t>fixed button color after click + pdf layout</t>
+  </si>
+  <si>
+    <t>Reworked ChallengeCreator to ChallengeManager, added CRUD Functionality</t>
   </si>
 </sst>
 </file>
@@ -565,10 +568,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB4D4F47-197B-4479-93DD-E9C21F2B9FCB}">
-  <dimension ref="A1:H71"/>
+  <dimension ref="A1:H72"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C69" sqref="C69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -633,7 +636,7 @@
       </c>
       <c r="H3">
         <f>SUMIF(B2:B149,"Daniel",D2:D149)</f>
-        <v>133</v>
+        <v>136.5</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
@@ -1586,6 +1589,20 @@
       </c>
       <c r="D71">
         <v>6</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A72" s="2">
+        <v>43448</v>
+      </c>
+      <c r="B72" t="s">
+        <v>3</v>
+      </c>
+      <c r="C72" t="s">
+        <v>51</v>
+      </c>
+      <c r="D72">
+        <v>3.5</v>
       </c>
     </row>
   </sheetData>

--- a/Organisatorisches/Arbeitszeiten.xlsx
+++ b/Organisatorisches/Arbeitszeiten.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Daniel\Desktop\Schule\Diplomarbeit\Ruderverein_ISTER\1819-5ahif-da-ruderverein-ister-dreamteam\Organisatorisches\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{62D3033B-7F91-4260-ADAD-A62111F428AB}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{07600B94-EC27-4FC5-B5C9-A860DDBCFAAC}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="6960" xr2:uid="{B5A97CFA-7350-44BD-8E9B-90279A779877}"/>
   </bookViews>
@@ -570,8 +570,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB4D4F47-197B-4479-93DD-E9C21F2B9FCB}">
   <dimension ref="A1:H72"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C69" sqref="C69"/>
+    <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
+      <selection activeCell="C73" sqref="C73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Organisatorisches/Arbeitszeiten.xlsx
+++ b/Organisatorisches/Arbeitszeiten.xlsx
@@ -1,31 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Daniel\Desktop\Schule\Diplomarbeit\Ruderverein_ISTER\1819-5ahif-da-ruderverein-ister-dreamteam\Organisatorisches\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DaRepo5\1819-5ahif-da-ruderverein-ister-dreamteam\Organisatorisches\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{07600B94-EC27-4FC5-B5C9-A860DDBCFAAC}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F773AB49-E887-4B7B-B353-43EE3754D918}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="6960" xr2:uid="{B5A97CFA-7350-44BD-8E9B-90279A779877}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17250" windowHeight="6960" xr2:uid="{B5A97CFA-7350-44BD-8E9B-90279A779877}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="55">
   <si>
     <t>Datum</t>
   </si>
@@ -181,6 +187,15 @@
   </si>
   <si>
     <t>Reworked ChallengeCreator to ChallengeManager, added CRUD Functionality</t>
+  </si>
+  <si>
+    <t>Encoding fixes</t>
+  </si>
+  <si>
+    <t>Testing + fixing</t>
+  </si>
+  <si>
+    <t>Protokoll</t>
   </si>
 </sst>
 </file>
@@ -568,18 +583,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB4D4F47-197B-4479-93DD-E9C21F2B9FCB}">
-  <dimension ref="A1:H72"/>
+  <dimension ref="A1:H75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
-      <selection activeCell="C73" sqref="C73"/>
+    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="C76" sqref="C76"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="67.6640625" customWidth="1"/>
+    <col min="3" max="3" width="67.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -597,7 +612,7 @@
       </c>
       <c r="H1" s="5"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>43279</v>
       </c>
@@ -617,7 +632,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>43279</v>
       </c>
@@ -632,14 +647,14 @@
       </c>
       <c r="G3" s="4">
         <f>SUMIF(B2:B149,"David",D2:D149)</f>
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H3">
         <f>SUMIF(B2:B149,"Daniel",D2:D149)</f>
         <v>136.5</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>43296</v>
       </c>
@@ -653,7 +668,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>43296</v>
       </c>
@@ -667,7 +682,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>43311</v>
       </c>
@@ -681,7 +696,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>43311</v>
       </c>
@@ -695,7 +710,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>43326</v>
       </c>
@@ -709,7 +724,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>43326</v>
       </c>
@@ -723,7 +738,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>43328</v>
       </c>
@@ -737,7 +752,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>43331</v>
       </c>
@@ -751,7 +766,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>43332</v>
       </c>
@@ -765,7 +780,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>43333</v>
       </c>
@@ -779,7 +794,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>43333</v>
       </c>
@@ -793,7 +808,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>43334</v>
       </c>
@@ -807,7 +822,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>43336</v>
       </c>
@@ -821,7 +836,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>43359</v>
       </c>
@@ -835,7 +850,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>43360</v>
       </c>
@@ -849,7 +864,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>43360</v>
       </c>
@@ -863,7 +878,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>43362</v>
       </c>
@@ -877,7 +892,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>43364</v>
       </c>
@@ -891,7 +906,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>43365</v>
       </c>
@@ -905,7 +920,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>43366</v>
       </c>
@@ -919,7 +934,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>43366</v>
       </c>
@@ -933,7 +948,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>43366</v>
       </c>
@@ -947,7 +962,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>43368</v>
       </c>
@@ -961,7 +976,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>43368</v>
       </c>
@@ -975,7 +990,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>43369</v>
       </c>
@@ -989,7 +1004,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>43370</v>
       </c>
@@ -1003,7 +1018,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>43371</v>
       </c>
@@ -1017,7 +1032,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>43373</v>
       </c>
@@ -1031,7 +1046,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>43374</v>
       </c>
@@ -1045,7 +1060,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>43374</v>
       </c>
@@ -1059,7 +1074,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>43375</v>
       </c>
@@ -1073,7 +1088,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>43375</v>
       </c>
@@ -1087,7 +1102,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>43376</v>
       </c>
@@ -1101,7 +1116,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>43377</v>
       </c>
@@ -1115,7 +1130,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>43378</v>
       </c>
@@ -1129,7 +1144,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <v>43378</v>
       </c>
@@ -1143,7 +1158,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <v>43380</v>
       </c>
@@ -1157,7 +1172,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
         <v>43382</v>
       </c>
@@ -1171,7 +1186,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
         <v>43389</v>
       </c>
@@ -1185,7 +1200,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
         <v>43391</v>
       </c>
@@ -1199,7 +1214,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
         <v>43391</v>
       </c>
@@ -1213,7 +1228,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
         <v>43394</v>
       </c>
@@ -1227,7 +1242,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
         <v>43401</v>
       </c>
@@ -1241,7 +1256,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
         <v>43402</v>
       </c>
@@ -1255,7 +1270,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
         <v>43403</v>
       </c>
@@ -1269,7 +1284,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
         <v>43404</v>
       </c>
@@ -1283,7 +1298,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
         <v>43404</v>
       </c>
@@ -1297,7 +1312,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
         <v>43407</v>
       </c>
@@ -1311,7 +1326,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="2">
         <v>43407</v>
       </c>
@@ -1325,7 +1340,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="2">
         <v>43415</v>
       </c>
@@ -1339,7 +1354,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="2">
         <v>43416</v>
       </c>
@@ -1353,7 +1368,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
         <v>43416</v>
       </c>
@@ -1367,7 +1382,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="2">
         <v>43417</v>
       </c>
@@ -1381,7 +1396,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="2">
         <v>43418</v>
       </c>
@@ -1395,7 +1410,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="2">
         <v>43419</v>
       </c>
@@ -1409,7 +1424,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="2">
         <v>43419</v>
       </c>
@@ -1423,7 +1438,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="2">
         <v>43420</v>
       </c>
@@ -1437,7 +1452,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="2">
         <v>43419</v>
       </c>
@@ -1451,7 +1466,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="2">
         <v>43421</v>
       </c>
@@ -1465,7 +1480,7 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="2">
         <v>43422</v>
       </c>
@@ -1479,7 +1494,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="2">
         <v>43424</v>
       </c>
@@ -1493,37 +1508,37 @@
         <v>3</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="2">
+        <v>43431</v>
+      </c>
+      <c r="B65" t="s">
+        <v>5</v>
+      </c>
+      <c r="C65" t="s">
+        <v>53</v>
+      </c>
+      <c r="D65">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" s="2">
+        <v>43435</v>
+      </c>
+      <c r="B66" t="s">
+        <v>5</v>
+      </c>
+      <c r="C66" t="s">
+        <v>54</v>
+      </c>
+      <c r="D66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" s="2">
         <v>43433</v>
-      </c>
-      <c r="B65" t="s">
-        <v>3</v>
-      </c>
-      <c r="C65" t="s">
-        <v>48</v>
-      </c>
-      <c r="D65">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A66" s="2">
-        <v>43434</v>
-      </c>
-      <c r="B66" t="s">
-        <v>3</v>
-      </c>
-      <c r="C66" t="s">
-        <v>48</v>
-      </c>
-      <c r="D66">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A67" s="2">
-        <v>43435</v>
       </c>
       <c r="B67" t="s">
         <v>3</v>
@@ -1535,9 +1550,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="2">
-        <v>43441</v>
+        <v>43434</v>
       </c>
       <c r="B68" t="s">
         <v>3</v>
@@ -1546,12 +1561,12 @@
         <v>48</v>
       </c>
       <c r="D68">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="2">
-        <v>43444</v>
+        <v>43435</v>
       </c>
       <c r="B69" t="s">
         <v>3</v>
@@ -1563,46 +1578,88 @@
         <v>3</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="2">
+        <v>43441</v>
+      </c>
+      <c r="B70" t="s">
+        <v>3</v>
+      </c>
+      <c r="C70" t="s">
+        <v>48</v>
+      </c>
+      <c r="D70">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71" s="2">
+        <v>43444</v>
+      </c>
+      <c r="B71" t="s">
+        <v>3</v>
+      </c>
+      <c r="C71" t="s">
+        <v>48</v>
+      </c>
+      <c r="D71">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72" s="2">
         <v>43446</v>
       </c>
-      <c r="B70" t="s">
-        <v>3</v>
-      </c>
-      <c r="C70" t="s">
+      <c r="B72" t="s">
+        <v>3</v>
+      </c>
+      <c r="C72" t="s">
         <v>49</v>
       </c>
-      <c r="D70">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A71" s="2">
+      <c r="D72">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73" s="2">
         <v>43447</v>
       </c>
-      <c r="B71" t="s">
-        <v>3</v>
-      </c>
-      <c r="C71" t="s">
+      <c r="B73" t="s">
+        <v>3</v>
+      </c>
+      <c r="C73" t="s">
         <v>50</v>
       </c>
-      <c r="D71">
+      <c r="D73">
         <v>6</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A72" s="2">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74" s="2">
         <v>43448</v>
       </c>
-      <c r="B72" t="s">
-        <v>3</v>
-      </c>
-      <c r="C72" t="s">
+      <c r="B74" t="s">
+        <v>3</v>
+      </c>
+      <c r="C74" t="s">
         <v>51</v>
       </c>
-      <c r="D72">
+      <c r="D74">
         <v>3.5</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75" s="2">
+        <v>43448</v>
+      </c>
+      <c r="B75" t="s">
+        <v>5</v>
+      </c>
+      <c r="C75" t="s">
+        <v>52</v>
+      </c>
+      <c r="D75">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/Organisatorisches/Arbeitszeiten.xlsx
+++ b/Organisatorisches/Arbeitszeiten.xlsx
@@ -1,37 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DaRepo5\1819-5ahif-da-ruderverein-ister-dreamteam\Organisatorisches\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Daniel\Desktop\Schule\Diplomarbeit\Ruderverein_ISTER\1819-5ahif-da-ruderverein-ister-dreamteam\Organisatorisches\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F773AB49-E887-4B7B-B353-43EE3754D918}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{E643CA38-B97A-4D9F-835F-AF7D76D20281}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17250" windowHeight="6960" xr2:uid="{B5A97CFA-7350-44BD-8E9B-90279A779877}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="6960" xr2:uid="{B5A97CFA-7350-44BD-8E9B-90279A779877}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="179017"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="58">
   <si>
     <t>Datum</t>
   </si>
@@ -196,6 +190,15 @@
   </si>
   <si>
     <t>Protokoll</t>
+  </si>
+  <si>
+    <t>Paar Bugs entfernt</t>
+  </si>
+  <si>
+    <t>Vorbereitung auf Gespräch</t>
+  </si>
+  <si>
+    <t>Gespräch mit Auftraggeber</t>
   </si>
 </sst>
 </file>
@@ -583,18 +586,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB4D4F47-197B-4479-93DD-E9C21F2B9FCB}">
-  <dimension ref="A1:H75"/>
+  <dimension ref="A1:H78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
-      <selection activeCell="C76" sqref="C76"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="67.7109375" customWidth="1"/>
+    <col min="3" max="3" width="67.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -612,7 +615,7 @@
       </c>
       <c r="H1" s="5"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>43279</v>
       </c>
@@ -632,7 +635,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>43279</v>
       </c>
@@ -651,10 +654,10 @@
       </c>
       <c r="H3">
         <f>SUMIF(B2:B149,"Daniel",D2:D149)</f>
-        <v>136.5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>43296</v>
       </c>
@@ -668,7 +671,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>43296</v>
       </c>
@@ -682,7 +685,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>43311</v>
       </c>
@@ -696,7 +699,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>43311</v>
       </c>
@@ -710,7 +713,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>43326</v>
       </c>
@@ -724,7 +727,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>43326</v>
       </c>
@@ -738,7 +741,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>43328</v>
       </c>
@@ -752,7 +755,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>43331</v>
       </c>
@@ -766,7 +769,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>43332</v>
       </c>
@@ -780,7 +783,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>43333</v>
       </c>
@@ -794,7 +797,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>43333</v>
       </c>
@@ -808,7 +811,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>43334</v>
       </c>
@@ -822,7 +825,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>43336</v>
       </c>
@@ -836,7 +839,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>43359</v>
       </c>
@@ -850,7 +853,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>43360</v>
       </c>
@@ -864,7 +867,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>43360</v>
       </c>
@@ -878,7 +881,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <v>43362</v>
       </c>
@@ -892,7 +895,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>43364</v>
       </c>
@@ -906,7 +909,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <v>43365</v>
       </c>
@@ -920,7 +923,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <v>43366</v>
       </c>
@@ -934,7 +937,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <v>43366</v>
       </c>
@@ -948,7 +951,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
         <v>43366</v>
       </c>
@@ -962,7 +965,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
         <v>43368</v>
       </c>
@@ -976,7 +979,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
         <v>43368</v>
       </c>
@@ -990,7 +993,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
         <v>43369</v>
       </c>
@@ -1004,7 +1007,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
         <v>43370</v>
       </c>
@@ -1018,7 +1021,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
         <v>43371</v>
       </c>
@@ -1032,7 +1035,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
         <v>43373</v>
       </c>
@@ -1046,7 +1049,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" s="2">
         <v>43374</v>
       </c>
@@ -1060,7 +1063,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" s="2">
         <v>43374</v>
       </c>
@@ -1074,7 +1077,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="2">
         <v>43375</v>
       </c>
@@ -1088,7 +1091,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" s="2">
         <v>43375</v>
       </c>
@@ -1102,7 +1105,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" s="2">
         <v>43376</v>
       </c>
@@ -1116,7 +1119,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" s="2">
         <v>43377</v>
       </c>
@@ -1130,7 +1133,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" s="2">
         <v>43378</v>
       </c>
@@ -1144,7 +1147,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" s="2">
         <v>43378</v>
       </c>
@@ -1158,7 +1161,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" s="2">
         <v>43380</v>
       </c>
@@ -1172,7 +1175,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" s="2">
         <v>43382</v>
       </c>
@@ -1186,7 +1189,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" s="2">
         <v>43389</v>
       </c>
@@ -1200,7 +1203,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" s="2">
         <v>43391</v>
       </c>
@@ -1214,7 +1217,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" s="2">
         <v>43391</v>
       </c>
@@ -1228,7 +1231,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" s="2">
         <v>43394</v>
       </c>
@@ -1242,7 +1245,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" s="2">
         <v>43401</v>
       </c>
@@ -1256,7 +1259,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" s="2">
         <v>43402</v>
       </c>
@@ -1270,7 +1273,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" s="2">
         <v>43403</v>
       </c>
@@ -1284,7 +1287,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" s="2">
         <v>43404</v>
       </c>
@@ -1298,7 +1301,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" s="2">
         <v>43404</v>
       </c>
@@ -1312,7 +1315,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" s="2">
         <v>43407</v>
       </c>
@@ -1326,7 +1329,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" s="2">
         <v>43407</v>
       </c>
@@ -1340,7 +1343,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" s="2">
         <v>43415</v>
       </c>
@@ -1354,7 +1357,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" s="2">
         <v>43416</v>
       </c>
@@ -1368,7 +1371,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" s="2">
         <v>43416</v>
       </c>
@@ -1382,7 +1385,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" s="2">
         <v>43417</v>
       </c>
@@ -1396,7 +1399,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" s="2">
         <v>43418</v>
       </c>
@@ -1410,7 +1413,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" s="2">
         <v>43419</v>
       </c>
@@ -1424,7 +1427,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" s="2">
         <v>43419</v>
       </c>
@@ -1438,7 +1441,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" s="2">
         <v>43420</v>
       </c>
@@ -1452,7 +1455,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" s="2">
         <v>43419</v>
       </c>
@@ -1466,7 +1469,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" s="2">
         <v>43421</v>
       </c>
@@ -1480,7 +1483,7 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63" s="2">
         <v>43422</v>
       </c>
@@ -1494,7 +1497,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64" s="2">
         <v>43424</v>
       </c>
@@ -1508,7 +1511,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65" s="2">
         <v>43431</v>
       </c>
@@ -1522,7 +1525,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66" s="2">
         <v>43435</v>
       </c>
@@ -1536,7 +1539,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67" s="2">
         <v>43433</v>
       </c>
@@ -1550,7 +1553,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68" s="2">
         <v>43434</v>
       </c>
@@ -1564,7 +1567,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69" s="2">
         <v>43435</v>
       </c>
@@ -1578,7 +1581,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70" s="2">
         <v>43441</v>
       </c>
@@ -1592,7 +1595,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71" s="2">
         <v>43444</v>
       </c>
@@ -1606,7 +1609,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72" s="2">
         <v>43446</v>
       </c>
@@ -1620,7 +1623,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73" s="2">
         <v>43447</v>
       </c>
@@ -1634,7 +1637,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74" s="2">
         <v>43448</v>
       </c>
@@ -1648,7 +1651,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75" s="2">
         <v>43448</v>
       </c>
@@ -1660,6 +1663,48 @@
       </c>
       <c r="D75">
         <v>5</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A76" s="2">
+        <v>43451</v>
+      </c>
+      <c r="B76" t="s">
+        <v>3</v>
+      </c>
+      <c r="C76" t="s">
+        <v>55</v>
+      </c>
+      <c r="D76">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A77" s="2">
+        <v>43452</v>
+      </c>
+      <c r="B77" t="s">
+        <v>3</v>
+      </c>
+      <c r="C77" t="s">
+        <v>56</v>
+      </c>
+      <c r="D77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A78" s="2">
+        <v>43453</v>
+      </c>
+      <c r="B78" t="s">
+        <v>3</v>
+      </c>
+      <c r="C78" t="s">
+        <v>57</v>
+      </c>
+      <c r="D78">
+        <v>1.5</v>
       </c>
     </row>
   </sheetData>

--- a/Organisatorisches/Arbeitszeiten.xlsx
+++ b/Organisatorisches/Arbeitszeiten.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Daniel\Desktop\Schule\Diplomarbeit\Ruderverein_ISTER\1819-5ahif-da-ruderverein-ister-dreamteam\Organisatorisches\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{E643CA38-B97A-4D9F-835F-AF7D76D20281}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{6DDE09C1-D303-4285-8639-73388C191273}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="6960" xr2:uid="{B5A97CFA-7350-44BD-8E9B-90279A779877}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="59">
   <si>
     <t>Datum</t>
   </si>
@@ -199,6 +199,9 @@
   </si>
   <si>
     <t>Gespräch mit Auftraggeber</t>
+  </si>
+  <si>
+    <t>optionales Beweisbild, Beweisbildsuche, dynamische Challengeliste, EmailName Btn</t>
   </si>
 </sst>
 </file>
@@ -586,15 +589,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB4D4F47-197B-4479-93DD-E9C21F2B9FCB}">
-  <dimension ref="A1:H78"/>
+  <dimension ref="A1:H79"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="67.6640625" customWidth="1"/>
+    <col min="3" max="3" width="70.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
@@ -654,7 +657,7 @@
       </c>
       <c r="H3">
         <f>SUMIF(B2:B149,"Daniel",D2:D149)</f>
-        <v>143</v>
+        <v>151</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
@@ -1705,6 +1708,20 @@
       </c>
       <c r="D78">
         <v>1.5</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A79" s="2">
+        <v>43455</v>
+      </c>
+      <c r="B79" t="s">
+        <v>3</v>
+      </c>
+      <c r="C79" t="s">
+        <v>58</v>
+      </c>
+      <c r="D79">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/Organisatorisches/Arbeitszeiten.xlsx
+++ b/Organisatorisches/Arbeitszeiten.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Daniel\Desktop\Schule\Diplomarbeit\Ruderverein_ISTER\1819-5ahif-da-ruderverein-ister-dreamteam\Organisatorisches\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{6DDE09C1-D303-4285-8639-73388C191273}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{13BEE5F3-6057-47A5-B446-11C57F6387B5}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="6960" xr2:uid="{B5A97CFA-7350-44BD-8E9B-90279A779877}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="60">
   <si>
     <t>Datum</t>
   </si>
@@ -202,6 +202,9 @@
   </si>
   <si>
     <t>optionales Beweisbild, Beweisbildsuche, dynamische Challengeliste, EmailName Btn</t>
+  </si>
+  <si>
+    <t>erstellen der Daten für KV-Language-Table</t>
   </si>
 </sst>
 </file>
@@ -589,10 +592,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB4D4F47-197B-4479-93DD-E9C21F2B9FCB}">
-  <dimension ref="A1:H79"/>
+  <dimension ref="A1:H80"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="F79" sqref="F79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -657,7 +660,7 @@
       </c>
       <c r="H3">
         <f>SUMIF(B2:B149,"Daniel",D2:D149)</f>
-        <v>151</v>
+        <v>152.5</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
@@ -1722,6 +1725,20 @@
       </c>
       <c r="D79">
         <v>8</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A80" s="2">
+        <v>43455</v>
+      </c>
+      <c r="B80" t="s">
+        <v>3</v>
+      </c>
+      <c r="C80" t="s">
+        <v>59</v>
+      </c>
+      <c r="D80">
+        <v>1.5</v>
       </c>
     </row>
   </sheetData>

--- a/Organisatorisches/Arbeitszeiten.xlsx
+++ b/Organisatorisches/Arbeitszeiten.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Daniel\Desktop\Schule\Diplomarbeit\Ruderverein_ISTER\1819-5ahif-da-ruderverein-ister-dreamteam\Organisatorisches\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{13BEE5F3-6057-47A5-B446-11C57F6387B5}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{7D8E8CE1-172F-4FE7-9EFB-ACB1A82D5DCC}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="6960" xr2:uid="{B5A97CFA-7350-44BD-8E9B-90279A779877}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="62">
   <si>
     <t>Datum</t>
   </si>
@@ -205,6 +205,12 @@
   </si>
   <si>
     <t>erstellen der Daten für KV-Language-Table</t>
+  </si>
+  <si>
+    <t>Skype-Konferenz, Besprechung der bevorstehenden Tasks</t>
+  </si>
+  <si>
+    <t>Zeitenprotokoll aktualisiert, Pop-Up für ändern von SessionDate, KV-Translation docx</t>
   </si>
 </sst>
 </file>
@@ -592,10 +598,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB4D4F47-197B-4479-93DD-E9C21F2B9FCB}">
-  <dimension ref="A1:H80"/>
+  <dimension ref="A1:H83"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F79" sqref="F79"/>
+      <selection activeCell="F81" sqref="F81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -656,11 +662,11 @@
       </c>
       <c r="G3" s="4">
         <f>SUMIF(B2:B149,"David",D2:D149)</f>
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H3">
         <f>SUMIF(B2:B149,"Daniel",D2:D149)</f>
-        <v>152.5</v>
+        <v>157</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
@@ -1739,6 +1745,48 @@
       </c>
       <c r="D80">
         <v>1.5</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A81" s="2">
+        <v>43458</v>
+      </c>
+      <c r="B81" t="s">
+        <v>5</v>
+      </c>
+      <c r="C81" t="s">
+        <v>60</v>
+      </c>
+      <c r="D81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A82" s="2">
+        <v>43458</v>
+      </c>
+      <c r="B82" t="s">
+        <v>3</v>
+      </c>
+      <c r="C82" t="s">
+        <v>60</v>
+      </c>
+      <c r="D82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A83" s="2">
+        <v>43458</v>
+      </c>
+      <c r="B83" t="s">
+        <v>3</v>
+      </c>
+      <c r="C83" t="s">
+        <v>61</v>
+      </c>
+      <c r="D83">
+        <v>3.5</v>
       </c>
     </row>
   </sheetData>

--- a/Organisatorisches/Arbeitszeiten.xlsx
+++ b/Organisatorisches/Arbeitszeiten.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Daniel\Desktop\Schule\Diplomarbeit\Ruderverein_ISTER\1819-5ahif-da-ruderverein-ister-dreamteam\Organisatorisches\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{7D8E8CE1-172F-4FE7-9EFB-ACB1A82D5DCC}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{1079F781-0EE9-4645-8374-A1D7738F4379}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="6960" xr2:uid="{B5A97CFA-7350-44BD-8E9B-90279A779877}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="63">
   <si>
     <t>Datum</t>
   </si>
@@ -211,6 +211,9 @@
   </si>
   <si>
     <t>Zeitenprotokoll aktualisiert, Pop-Up für ändern von SessionDate, KV-Translation docx</t>
+  </si>
+  <si>
+    <t>Translation Service</t>
   </si>
 </sst>
 </file>
@@ -598,10 +601,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB4D4F47-197B-4479-93DD-E9C21F2B9FCB}">
-  <dimension ref="A1:H83"/>
+  <dimension ref="A1:H84"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F81" sqref="F81"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -666,7 +669,7 @@
       </c>
       <c r="H3">
         <f>SUMIF(B2:B149,"Daniel",D2:D149)</f>
-        <v>157</v>
+        <v>161.5</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
@@ -1787,6 +1790,20 @@
       </c>
       <c r="D83">
         <v>3.5</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A84" s="2">
+        <v>43459</v>
+      </c>
+      <c r="B84" t="s">
+        <v>3</v>
+      </c>
+      <c r="C84" t="s">
+        <v>62</v>
+      </c>
+      <c r="D84">
+        <v>4.5</v>
       </c>
     </row>
   </sheetData>

--- a/Organisatorisches/Arbeitszeiten.xlsx
+++ b/Organisatorisches/Arbeitszeiten.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Daniel\Desktop\Schule\Diplomarbeit\Ruderverein_ISTER\1819-5ahif-da-ruderverein-ister-dreamteam\Organisatorisches\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{1079F781-0EE9-4645-8374-A1D7738F4379}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{2B9D6B8A-0478-42AF-ADCB-5E2B76EEC076}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="6960" xr2:uid="{B5A97CFA-7350-44BD-8E9B-90279A779877}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="63">
   <si>
     <t>Datum</t>
   </si>
@@ -601,10 +601,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB4D4F47-197B-4479-93DD-E9C21F2B9FCB}">
-  <dimension ref="A1:H84"/>
+  <dimension ref="A1:H85"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="E83" sqref="E83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -669,7 +669,7 @@
       </c>
       <c r="H3">
         <f>SUMIF(B2:B149,"Daniel",D2:D149)</f>
-        <v>161.5</v>
+        <v>163</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
@@ -1804,6 +1804,20 @@
       </c>
       <c r="D84">
         <v>4.5</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A85" s="2">
+        <v>43460</v>
+      </c>
+      <c r="B85" t="s">
+        <v>3</v>
+      </c>
+      <c r="C85" t="s">
+        <v>62</v>
+      </c>
+      <c r="D85">
+        <v>1.5</v>
       </c>
     </row>
   </sheetData>

--- a/Organisatorisches/Arbeitszeiten.xlsx
+++ b/Organisatorisches/Arbeitszeiten.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Daniel\Desktop\Schule\Diplomarbeit\Ruderverein_ISTER\1819-5ahif-da-ruderverein-ister-dreamteam\Organisatorisches\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{2B9D6B8A-0478-42AF-ADCB-5E2B76EEC076}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{3A2D3EFD-47C1-4568-9411-E4D01005ED5A}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="6960" xr2:uid="{B5A97CFA-7350-44BD-8E9B-90279A779877}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="179017" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="64">
   <si>
     <t>Datum</t>
   </si>
@@ -214,6 +214,9 @@
   </si>
   <si>
     <t>Translation Service</t>
+  </si>
+  <si>
+    <t>Code improvement, pdf Club</t>
   </si>
 </sst>
 </file>
@@ -601,10 +604,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB4D4F47-197B-4479-93DD-E9C21F2B9FCB}">
-  <dimension ref="A1:H85"/>
+  <dimension ref="A1:H86"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="E83" sqref="E83"/>
+      <selection activeCell="A84" sqref="A84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -669,7 +672,7 @@
       </c>
       <c r="H3">
         <f>SUMIF(B2:B149,"Daniel",D2:D149)</f>
-        <v>163</v>
+        <v>168</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
@@ -1794,7 +1797,7 @@
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A84" s="2">
-        <v>43459</v>
+        <v>43460</v>
       </c>
       <c r="B84" t="s">
         <v>3</v>
@@ -1808,7 +1811,7 @@
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A85" s="2">
-        <v>43460</v>
+        <v>43462</v>
       </c>
       <c r="B85" t="s">
         <v>3</v>
@@ -1818,6 +1821,20 @@
       </c>
       <c r="D85">
         <v>1.5</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A86" s="2">
+        <v>43463</v>
+      </c>
+      <c r="B86" t="s">
+        <v>3</v>
+      </c>
+      <c r="C86" t="s">
+        <v>63</v>
+      </c>
+      <c r="D86">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/Organisatorisches/Arbeitszeiten.xlsx
+++ b/Organisatorisches/Arbeitszeiten.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Daniel\Desktop\Schule\Diplomarbeit\Ruderverein_ISTER\1819-5ahif-da-ruderverein-ister-dreamteam\Organisatorisches\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{3A2D3EFD-47C1-4568-9411-E4D01005ED5A}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{84B6D4FF-7AD7-4594-8A4B-9CB4962FFD70}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="6960" xr2:uid="{B5A97CFA-7350-44BD-8E9B-90279A779877}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="65">
   <si>
     <t>Datum</t>
   </si>
@@ -217,6 +217,9 @@
   </si>
   <si>
     <t>Code improvement, pdf Club</t>
+  </si>
+  <si>
+    <t>pdf Club erledigt, translation eingeführt</t>
   </si>
 </sst>
 </file>
@@ -604,10 +607,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB4D4F47-197B-4479-93DD-E9C21F2B9FCB}">
-  <dimension ref="A1:H86"/>
+  <dimension ref="A1:H87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="A84" sqref="A84"/>
+    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="E85" sqref="E85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -672,7 +675,7 @@
       </c>
       <c r="H3">
         <f>SUMIF(B2:B149,"Daniel",D2:D149)</f>
-        <v>168</v>
+        <v>173.5</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
@@ -1835,6 +1838,20 @@
       </c>
       <c r="D86">
         <v>5</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A87" s="2">
+        <v>43464</v>
+      </c>
+      <c r="B87" t="s">
+        <v>3</v>
+      </c>
+      <c r="C87" t="s">
+        <v>64</v>
+      </c>
+      <c r="D87">
+        <v>5.5</v>
       </c>
     </row>
   </sheetData>

--- a/Organisatorisches/Arbeitszeiten.xlsx
+++ b/Organisatorisches/Arbeitszeiten.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Daniel\Desktop\Schule\Diplomarbeit\Ruderverein_ISTER\1819-5ahif-da-ruderverein-ister-dreamteam\Organisatorisches\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{84B6D4FF-7AD7-4594-8A4B-9CB4962FFD70}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{6D85B0C9-C49E-4DCC-8831-EA301FD47F49}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="6960" xr2:uid="{B5A97CFA-7350-44BD-8E9B-90279A779877}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="66">
   <si>
     <t>Datum</t>
   </si>
@@ -220,6 +220,9 @@
   </si>
   <si>
     <t>pdf Club erledigt, translation eingeführt</t>
+  </si>
+  <si>
+    <t>Code Review</t>
   </si>
 </sst>
 </file>
@@ -607,10 +610,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB4D4F47-197B-4479-93DD-E9C21F2B9FCB}">
-  <dimension ref="A1:H87"/>
+  <dimension ref="A1:H88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="E85" sqref="E85"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E84" sqref="E84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -675,7 +678,7 @@
       </c>
       <c r="H3">
         <f>SUMIF(B2:B149,"Daniel",D2:D149)</f>
-        <v>173.5</v>
+        <v>177</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
@@ -1852,6 +1855,20 @@
       </c>
       <c r="D87">
         <v>5.5</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A88" s="2">
+        <v>43102</v>
+      </c>
+      <c r="B88" t="s">
+        <v>3</v>
+      </c>
+      <c r="C88" t="s">
+        <v>65</v>
+      </c>
+      <c r="D88">
+        <v>3.5</v>
       </c>
     </row>
   </sheetData>

--- a/Organisatorisches/Arbeitszeiten.xlsx
+++ b/Organisatorisches/Arbeitszeiten.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Daniel\Desktop\Schule\Diplomarbeit\Ruderverein_ISTER\1819-5ahif-da-ruderverein-ister-dreamteam\Organisatorisches\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{6D85B0C9-C49E-4DCC-8831-EA301FD47F49}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{99100506-76D9-41F8-9EE8-A134CF5C24A6}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="6960" xr2:uid="{B5A97CFA-7350-44BD-8E9B-90279A779877}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="67">
   <si>
     <t>Datum</t>
   </si>
@@ -223,6 +223,9 @@
   </si>
   <si>
     <t>Code Review</t>
+  </si>
+  <si>
+    <t>reworked DataService, finished Challenge Manager</t>
   </si>
 </sst>
 </file>
@@ -610,10 +613,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB4D4F47-197B-4479-93DD-E9C21F2B9FCB}">
-  <dimension ref="A1:H88"/>
+  <dimension ref="A1:H89"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E84" sqref="E84"/>
+      <selection activeCell="F85" sqref="F85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -678,7 +681,7 @@
       </c>
       <c r="H3">
         <f>SUMIF(B2:B149,"Daniel",D2:D149)</f>
-        <v>177</v>
+        <v>182</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
@@ -1869,6 +1872,20 @@
       </c>
       <c r="D88">
         <v>3.5</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A89" s="2">
+        <v>43103</v>
+      </c>
+      <c r="B89" t="s">
+        <v>3</v>
+      </c>
+      <c r="C89" t="s">
+        <v>66</v>
+      </c>
+      <c r="D89">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/Organisatorisches/Arbeitszeiten.xlsx
+++ b/Organisatorisches/Arbeitszeiten.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Daniel\Desktop\Schule\Diplomarbeit\Ruderverein_ISTER\1819-5ahif-da-ruderverein-ister-dreamteam\Organisatorisches\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{99100506-76D9-41F8-9EE8-A134CF5C24A6}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{C5214778-90FB-40E4-92AC-E0A51D1B671B}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="6960" xr2:uid="{B5A97CFA-7350-44BD-8E9B-90279A779877}"/>
   </bookViews>
@@ -225,7 +225,7 @@
     <t>Code Review</t>
   </si>
   <si>
-    <t>reworked DataService, finished Challenge Manager</t>
+    <t>reworked DataService, finished Challenge Manager, Debugging</t>
   </si>
 </sst>
 </file>
@@ -616,7 +616,7 @@
   <dimension ref="A1:H89"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F85" sqref="F85"/>
+      <selection activeCell="E86" sqref="E86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -681,7 +681,7 @@
       </c>
       <c r="H3">
         <f>SUMIF(B2:B149,"Daniel",D2:D149)</f>
-        <v>182</v>
+        <v>183.5</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
@@ -1885,7 +1885,7 @@
         <v>66</v>
       </c>
       <c r="D89">
-        <v>5</v>
+        <v>6.5</v>
       </c>
     </row>
   </sheetData>

--- a/Organisatorisches/Arbeitszeiten.xlsx
+++ b/Organisatorisches/Arbeitszeiten.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Daniel\Desktop\Schule\Diplomarbeit\Ruderverein_ISTER\1819-5ahif-da-ruderverein-ister-dreamteam\Organisatorisches\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{C5214778-90FB-40E4-92AC-E0A51D1B671B}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{70054CA2-D685-415E-90C6-F9C3EBD8248F}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="6960" xr2:uid="{B5A97CFA-7350-44BD-8E9B-90279A779877}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="68">
   <si>
     <t>Datum</t>
   </si>
@@ -226,6 +226,9 @@
   </si>
   <si>
     <t>reworked DataService, finished Challenge Manager, Debugging</t>
+  </si>
+  <si>
+    <t>Bug Fixing Challenge Manager, Code Review</t>
   </si>
 </sst>
 </file>
@@ -613,10 +616,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB4D4F47-197B-4479-93DD-E9C21F2B9FCB}">
-  <dimension ref="A1:H89"/>
+  <dimension ref="A1:H90"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E86" sqref="E86"/>
+    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="C90" sqref="C90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -676,12 +679,12 @@
         <v>3</v>
       </c>
       <c r="G3" s="4">
-        <f>SUMIF(B2:B149,"David",D2:D149)</f>
+        <f>SUMIF(B2:B200,"David",D2:D200)</f>
         <v>89</v>
       </c>
       <c r="H3">
-        <f>SUMIF(B2:B149,"Daniel",D2:D149)</f>
-        <v>183.5</v>
+        <f>SUMIF(B2:B200,"Daniel",D2:D200)</f>
+        <v>187</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
@@ -1886,6 +1889,20 @@
       </c>
       <c r="D89">
         <v>6.5</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A90" s="2">
+        <v>43104</v>
+      </c>
+      <c r="B90" t="s">
+        <v>3</v>
+      </c>
+      <c r="C90" t="s">
+        <v>67</v>
+      </c>
+      <c r="D90">
+        <v>3.5</v>
       </c>
     </row>
   </sheetData>

--- a/Organisatorisches/Arbeitszeiten.xlsx
+++ b/Organisatorisches/Arbeitszeiten.xlsx
@@ -1,31 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Daniel\Desktop\Schule\Diplomarbeit\Ruderverein_ISTER\1819-5ahif-da-ruderverein-ister-dreamteam\Organisatorisches\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DaRepo6\1819-5ahif-da-ruderverein-ister-dreamteam\Organisatorisches\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{70054CA2-D685-415E-90C6-F9C3EBD8248F}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8254432-67C1-453A-A3C9-7E62727BC55E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="6960" xr2:uid="{B5A97CFA-7350-44BD-8E9B-90279A779877}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17250" windowHeight="6960" xr2:uid="{B5A97CFA-7350-44BD-8E9B-90279A779877}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="179017" concurrentCalc="0"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="69">
   <si>
     <t>Datum</t>
   </si>
@@ -229,6 +235,9 @@
   </si>
   <si>
     <t>Bug Fixing Challenge Manager, Code Review</t>
+  </si>
+  <si>
+    <t>Google Sign in</t>
   </si>
 </sst>
 </file>
@@ -616,18 +625,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB4D4F47-197B-4479-93DD-E9C21F2B9FCB}">
-  <dimension ref="A1:H90"/>
+  <dimension ref="A1:H91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="C90" sqref="C90"/>
+    <sheetView tabSelected="1" topLeftCell="A56" workbookViewId="0">
+      <selection activeCell="D88" sqref="D88"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="70.33203125" customWidth="1"/>
+    <col min="3" max="3" width="70.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -645,7 +654,7 @@
       </c>
       <c r="H1" s="5"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>43279</v>
       </c>
@@ -665,7 +674,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>43279</v>
       </c>
@@ -679,15 +688,15 @@
         <v>3</v>
       </c>
       <c r="G3" s="4">
-        <f>SUMIF(B2:B200,"David",D2:D200)</f>
-        <v>89</v>
+        <f>SUMIF(B2:B201,"David",D2:D201)</f>
+        <v>114</v>
       </c>
       <c r="H3">
-        <f>SUMIF(B2:B200,"Daniel",D2:D200)</f>
+        <f>SUMIF(B2:B201,"Daniel",D2:D201)</f>
         <v>187</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>43296</v>
       </c>
@@ -701,7 +710,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>43296</v>
       </c>
@@ -715,7 +724,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>43311</v>
       </c>
@@ -729,7 +738,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>43311</v>
       </c>
@@ -743,7 +752,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>43326</v>
       </c>
@@ -757,7 +766,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>43326</v>
       </c>
@@ -771,7 +780,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>43328</v>
       </c>
@@ -785,7 +794,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>43331</v>
       </c>
@@ -799,7 +808,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>43332</v>
       </c>
@@ -813,7 +822,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>43333</v>
       </c>
@@ -827,7 +836,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>43333</v>
       </c>
@@ -841,7 +850,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>43334</v>
       </c>
@@ -855,7 +864,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>43336</v>
       </c>
@@ -869,7 +878,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>43359</v>
       </c>
@@ -883,7 +892,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>43360</v>
       </c>
@@ -897,7 +906,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>43360</v>
       </c>
@@ -911,7 +920,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>43362</v>
       </c>
@@ -925,7 +934,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>43364</v>
       </c>
@@ -939,7 +948,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>43365</v>
       </c>
@@ -953,7 +962,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>43366</v>
       </c>
@@ -967,7 +976,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>43366</v>
       </c>
@@ -981,7 +990,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>43366</v>
       </c>
@@ -995,7 +1004,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>43368</v>
       </c>
@@ -1009,7 +1018,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>43368</v>
       </c>
@@ -1023,7 +1032,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>43369</v>
       </c>
@@ -1037,7 +1046,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>43370</v>
       </c>
@@ -1051,7 +1060,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>43371</v>
       </c>
@@ -1065,7 +1074,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>43373</v>
       </c>
@@ -1079,7 +1088,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>43374</v>
       </c>
@@ -1093,7 +1102,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>43374</v>
       </c>
@@ -1107,7 +1116,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>43375</v>
       </c>
@@ -1121,7 +1130,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>43375</v>
       </c>
@@ -1135,7 +1144,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>43376</v>
       </c>
@@ -1149,7 +1158,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>43377</v>
       </c>
@@ -1163,7 +1172,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>43378</v>
       </c>
@@ -1177,7 +1186,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <v>43378</v>
       </c>
@@ -1191,7 +1200,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <v>43380</v>
       </c>
@@ -1205,7 +1214,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
         <v>43382</v>
       </c>
@@ -1219,7 +1228,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
         <v>43389</v>
       </c>
@@ -1233,7 +1242,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
         <v>43391</v>
       </c>
@@ -1247,7 +1256,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
         <v>43391</v>
       </c>
@@ -1261,7 +1270,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
         <v>43394</v>
       </c>
@@ -1275,7 +1284,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
         <v>43401</v>
       </c>
@@ -1289,7 +1298,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
         <v>43402</v>
       </c>
@@ -1303,7 +1312,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
         <v>43403</v>
       </c>
@@ -1317,7 +1326,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
         <v>43404</v>
       </c>
@@ -1331,7 +1340,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
         <v>43404</v>
       </c>
@@ -1345,7 +1354,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
         <v>43407</v>
       </c>
@@ -1359,7 +1368,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="2">
         <v>43407</v>
       </c>
@@ -1373,7 +1382,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="2">
         <v>43415</v>
       </c>
@@ -1387,7 +1396,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="2">
         <v>43416</v>
       </c>
@@ -1401,7 +1410,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
         <v>43416</v>
       </c>
@@ -1415,7 +1424,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="2">
         <v>43417</v>
       </c>
@@ -1429,7 +1438,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="2">
         <v>43418</v>
       </c>
@@ -1443,7 +1452,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="2">
         <v>43419</v>
       </c>
@@ -1457,7 +1466,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="2">
         <v>43419</v>
       </c>
@@ -1471,7 +1480,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="2">
         <v>43420</v>
       </c>
@@ -1485,7 +1494,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="2">
         <v>43419</v>
       </c>
@@ -1499,7 +1508,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="2">
         <v>43421</v>
       </c>
@@ -1513,7 +1522,7 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="2">
         <v>43422</v>
       </c>
@@ -1527,7 +1536,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="2">
         <v>43424</v>
       </c>
@@ -1541,7 +1550,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="2">
         <v>43431</v>
       </c>
@@ -1555,7 +1564,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="2">
         <v>43435</v>
       </c>
@@ -1569,7 +1578,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="2">
         <v>43433</v>
       </c>
@@ -1583,7 +1592,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="2">
         <v>43434</v>
       </c>
@@ -1597,7 +1606,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="2">
         <v>43435</v>
       </c>
@@ -1611,7 +1620,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="2">
         <v>43441</v>
       </c>
@@ -1625,7 +1634,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="2">
         <v>43444</v>
       </c>
@@ -1639,7 +1648,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="2">
         <v>43446</v>
       </c>
@@ -1653,7 +1662,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="2">
         <v>43447</v>
       </c>
@@ -1667,7 +1676,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="2">
         <v>43448</v>
       </c>
@@ -1681,7 +1690,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="2">
         <v>43448</v>
       </c>
@@ -1695,7 +1704,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="2">
         <v>43451</v>
       </c>
@@ -1709,7 +1718,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="2">
         <v>43452</v>
       </c>
@@ -1723,7 +1732,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="2">
         <v>43453</v>
       </c>
@@ -1737,7 +1746,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="2">
         <v>43455</v>
       </c>
@@ -1751,7 +1760,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="2">
         <v>43455</v>
       </c>
@@ -1765,7 +1774,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="2">
         <v>43458</v>
       </c>
@@ -1779,7 +1788,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="2">
         <v>43458</v>
       </c>
@@ -1793,7 +1802,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="2">
         <v>43458</v>
       </c>
@@ -1807,7 +1816,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="2">
         <v>43460</v>
       </c>
@@ -1821,7 +1830,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="2">
         <v>43462</v>
       </c>
@@ -1835,7 +1844,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="2">
         <v>43463</v>
       </c>
@@ -1849,59 +1858,73 @@
         <v>5</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="2">
+        <v>43463</v>
+      </c>
+      <c r="B87" t="s">
+        <v>5</v>
+      </c>
+      <c r="C87" t="s">
+        <v>68</v>
+      </c>
+      <c r="D87">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A88" s="2">
         <v>43464</v>
       </c>
-      <c r="B87" t="s">
-        <v>3</v>
-      </c>
-      <c r="C87" t="s">
+      <c r="B88" t="s">
+        <v>3</v>
+      </c>
+      <c r="C88" t="s">
         <v>64</v>
       </c>
-      <c r="D87">
+      <c r="D88">
         <v>5.5</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A88" s="2">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A89" s="2">
         <v>43102</v>
       </c>
-      <c r="B88" t="s">
-        <v>3</v>
-      </c>
-      <c r="C88" t="s">
+      <c r="B89" t="s">
+        <v>3</v>
+      </c>
+      <c r="C89" t="s">
         <v>65</v>
       </c>
-      <c r="D88">
+      <c r="D89">
         <v>3.5</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A89" s="2">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A90" s="2">
         <v>43103</v>
       </c>
-      <c r="B89" t="s">
-        <v>3</v>
-      </c>
-      <c r="C89" t="s">
+      <c r="B90" t="s">
+        <v>3</v>
+      </c>
+      <c r="C90" t="s">
         <v>66</v>
       </c>
-      <c r="D89">
+      <c r="D90">
         <v>6.5</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A90" s="2">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A91" s="2">
         <v>43104</v>
       </c>
-      <c r="B90" t="s">
-        <v>3</v>
-      </c>
-      <c r="C90" t="s">
+      <c r="B91" t="s">
+        <v>3</v>
+      </c>
+      <c r="C91" t="s">
         <v>67</v>
       </c>
-      <c r="D90">
+      <c r="D91">
         <v>3.5</v>
       </c>
     </row>

--- a/Organisatorisches/Arbeitszeiten.xlsx
+++ b/Organisatorisches/Arbeitszeiten.xlsx
@@ -1,37 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DaRepo6\1819-5ahif-da-ruderverein-ister-dreamteam\Organisatorisches\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Daniel\Desktop\Schule\Diplomarbeit\Ruderverein_ISTER\1819-5ahif-da-ruderverein-ister-dreamteam\Organisatorisches\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8254432-67C1-453A-A3C9-7E62727BC55E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{C9577616-563D-45D2-9EB9-208846ECEEF3}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17250" windowHeight="6960" xr2:uid="{B5A97CFA-7350-44BD-8E9B-90279A779877}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="6960" xr2:uid="{B5A97CFA-7350-44BD-8E9B-90279A779877}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029" concurrentCalc="0"/>
+  <calcPr calcId="179017" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="70">
   <si>
     <t>Datum</t>
   </si>
@@ -238,6 +232,9 @@
   </si>
   <si>
     <t>Google Sign in</t>
+  </si>
+  <si>
+    <t>Merged Google Signin + Bug fixing</t>
   </si>
 </sst>
 </file>
@@ -625,18 +622,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB4D4F47-197B-4479-93DD-E9C21F2B9FCB}">
-  <dimension ref="A1:H91"/>
+  <dimension ref="A1:H93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A56" workbookViewId="0">
-      <selection activeCell="D88" sqref="D88"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C86" sqref="C86"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="70.28515625" customWidth="1"/>
+    <col min="3" max="3" width="70.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -654,7 +651,7 @@
       </c>
       <c r="H1" s="5"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>43279</v>
       </c>
@@ -674,7 +671,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>43279</v>
       </c>
@@ -689,14 +686,14 @@
       </c>
       <c r="G3" s="4">
         <f>SUMIF(B2:B201,"David",D2:D201)</f>
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="H3">
         <f>SUMIF(B2:B201,"Daniel",D2:D201)</f>
-        <v>187</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>43296</v>
       </c>
@@ -710,7 +707,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>43296</v>
       </c>
@@ -724,7 +721,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>43311</v>
       </c>
@@ -738,7 +735,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>43311</v>
       </c>
@@ -752,7 +749,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>43326</v>
       </c>
@@ -766,7 +763,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>43326</v>
       </c>
@@ -780,7 +777,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>43328</v>
       </c>
@@ -794,7 +791,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>43331</v>
       </c>
@@ -808,7 +805,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>43332</v>
       </c>
@@ -822,7 +819,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>43333</v>
       </c>
@@ -836,7 +833,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>43333</v>
       </c>
@@ -850,7 +847,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>43334</v>
       </c>
@@ -864,7 +861,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>43336</v>
       </c>
@@ -878,7 +875,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>43359</v>
       </c>
@@ -892,7 +889,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>43360</v>
       </c>
@@ -906,7 +903,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>43360</v>
       </c>
@@ -920,7 +917,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <v>43362</v>
       </c>
@@ -934,7 +931,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>43364</v>
       </c>
@@ -948,7 +945,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <v>43365</v>
       </c>
@@ -962,7 +959,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <v>43366</v>
       </c>
@@ -976,7 +973,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <v>43366</v>
       </c>
@@ -990,7 +987,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
         <v>43366</v>
       </c>
@@ -1004,7 +1001,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
         <v>43368</v>
       </c>
@@ -1018,7 +1015,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
         <v>43368</v>
       </c>
@@ -1032,7 +1029,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
         <v>43369</v>
       </c>
@@ -1046,7 +1043,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
         <v>43370</v>
       </c>
@@ -1060,7 +1057,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
         <v>43371</v>
       </c>
@@ -1074,7 +1071,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
         <v>43373</v>
       </c>
@@ -1088,7 +1085,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" s="2">
         <v>43374</v>
       </c>
@@ -1102,7 +1099,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" s="2">
         <v>43374</v>
       </c>
@@ -1116,7 +1113,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="2">
         <v>43375</v>
       </c>
@@ -1130,7 +1127,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" s="2">
         <v>43375</v>
       </c>
@@ -1144,7 +1141,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" s="2">
         <v>43376</v>
       </c>
@@ -1158,7 +1155,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" s="2">
         <v>43377</v>
       </c>
@@ -1172,7 +1169,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" s="2">
         <v>43378</v>
       </c>
@@ -1186,7 +1183,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" s="2">
         <v>43378</v>
       </c>
@@ -1200,7 +1197,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" s="2">
         <v>43380</v>
       </c>
@@ -1214,7 +1211,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" s="2">
         <v>43382</v>
       </c>
@@ -1228,7 +1225,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" s="2">
         <v>43389</v>
       </c>
@@ -1242,7 +1239,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" s="2">
         <v>43391</v>
       </c>
@@ -1256,7 +1253,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" s="2">
         <v>43391</v>
       </c>
@@ -1270,7 +1267,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" s="2">
         <v>43394</v>
       </c>
@@ -1284,7 +1281,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" s="2">
         <v>43401</v>
       </c>
@@ -1298,7 +1295,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" s="2">
         <v>43402</v>
       </c>
@@ -1312,7 +1309,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" s="2">
         <v>43403</v>
       </c>
@@ -1326,7 +1323,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" s="2">
         <v>43404</v>
       </c>
@@ -1340,7 +1337,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" s="2">
         <v>43404</v>
       </c>
@@ -1354,7 +1351,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" s="2">
         <v>43407</v>
       </c>
@@ -1368,7 +1365,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" s="2">
         <v>43407</v>
       </c>
@@ -1382,7 +1379,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" s="2">
         <v>43415</v>
       </c>
@@ -1396,7 +1393,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" s="2">
         <v>43416</v>
       </c>
@@ -1410,7 +1407,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" s="2">
         <v>43416</v>
       </c>
@@ -1424,7 +1421,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" s="2">
         <v>43417</v>
       </c>
@@ -1438,7 +1435,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" s="2">
         <v>43418</v>
       </c>
@@ -1452,7 +1449,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" s="2">
         <v>43419</v>
       </c>
@@ -1466,7 +1463,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" s="2">
         <v>43419</v>
       </c>
@@ -1480,7 +1477,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" s="2">
         <v>43420</v>
       </c>
@@ -1494,7 +1491,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" s="2">
         <v>43419</v>
       </c>
@@ -1508,7 +1505,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" s="2">
         <v>43421</v>
       </c>
@@ -1522,7 +1519,7 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63" s="2">
         <v>43422</v>
       </c>
@@ -1536,7 +1533,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64" s="2">
         <v>43424</v>
       </c>
@@ -1550,7 +1547,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65" s="2">
         <v>43431</v>
       </c>
@@ -1564,7 +1561,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66" s="2">
         <v>43435</v>
       </c>
@@ -1578,7 +1575,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67" s="2">
         <v>43433</v>
       </c>
@@ -1592,7 +1589,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68" s="2">
         <v>43434</v>
       </c>
@@ -1606,7 +1603,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69" s="2">
         <v>43435</v>
       </c>
@@ -1620,7 +1617,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70" s="2">
         <v>43441</v>
       </c>
@@ -1634,7 +1631,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71" s="2">
         <v>43444</v>
       </c>
@@ -1648,7 +1645,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72" s="2">
         <v>43446</v>
       </c>
@@ -1662,7 +1659,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73" s="2">
         <v>43447</v>
       </c>
@@ -1676,7 +1673,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74" s="2">
         <v>43448</v>
       </c>
@@ -1690,7 +1687,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75" s="2">
         <v>43448</v>
       </c>
@@ -1704,7 +1701,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76" s="2">
         <v>43451</v>
       </c>
@@ -1718,7 +1715,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77" s="2">
         <v>43452</v>
       </c>
@@ -1732,7 +1729,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A78" s="2">
         <v>43453</v>
       </c>
@@ -1746,7 +1743,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A79" s="2">
         <v>43455</v>
       </c>
@@ -1760,7 +1757,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A80" s="2">
         <v>43455</v>
       </c>
@@ -1774,7 +1771,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A81" s="2">
         <v>43458</v>
       </c>
@@ -1788,7 +1785,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A82" s="2">
         <v>43458</v>
       </c>
@@ -1802,7 +1799,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A83" s="2">
         <v>43458</v>
       </c>
@@ -1816,7 +1813,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A84" s="2">
         <v>43460</v>
       </c>
@@ -1830,7 +1827,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A85" s="2">
         <v>43462</v>
       </c>
@@ -1844,7 +1841,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A86" s="2">
         <v>43463</v>
       </c>
@@ -1858,7 +1855,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A87" s="2">
         <v>43463</v>
       </c>
@@ -1872,7 +1869,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A88" s="2">
         <v>43464</v>
       </c>
@@ -1886,7 +1883,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A89" s="2">
         <v>43102</v>
       </c>
@@ -1900,7 +1897,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A90" s="2">
         <v>43103</v>
       </c>
@@ -1914,7 +1911,7 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A91" s="2">
         <v>43104</v>
       </c>
@@ -1926,6 +1923,34 @@
       </c>
       <c r="D91">
         <v>3.5</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A92" s="2">
+        <v>43110</v>
+      </c>
+      <c r="B92" t="s">
+        <v>5</v>
+      </c>
+      <c r="C92" t="s">
+        <v>69</v>
+      </c>
+      <c r="D92">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A93" s="2">
+        <v>43110</v>
+      </c>
+      <c r="B93" t="s">
+        <v>3</v>
+      </c>
+      <c r="C93" t="s">
+        <v>69</v>
+      </c>
+      <c r="D93">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/Organisatorisches/Arbeitszeiten.xlsx
+++ b/Organisatorisches/Arbeitszeiten.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Daniel\Desktop\Schule\Diplomarbeit\Ruderverein_ISTER\1819-5ahif-da-ruderverein-ister-dreamteam\Organisatorisches\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{C9577616-563D-45D2-9EB9-208846ECEEF3}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{802E187D-EC3E-422A-8AFB-FF62C56BA6BC}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="6960" xr2:uid="{B5A97CFA-7350-44BD-8E9B-90279A779877}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="71">
   <si>
     <t>Datum</t>
   </si>
@@ -235,6 +235,9 @@
   </si>
   <si>
     <t>Merged Google Signin + Bug fixing</t>
+  </si>
+  <si>
+    <t>Merged Google Signin + Bug fixing, implementing button visibilities</t>
   </si>
 </sst>
 </file>
@@ -622,10 +625,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB4D4F47-197B-4479-93DD-E9C21F2B9FCB}">
-  <dimension ref="A1:H93"/>
+  <dimension ref="A1:H94"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C86" sqref="C86"/>
+    <sheetView tabSelected="1" topLeftCell="A81" workbookViewId="0">
+      <selection activeCell="D96" sqref="D96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -690,7 +693,7 @@
       </c>
       <c r="H3">
         <f>SUMIF(B2:B201,"Daniel",D2:D201)</f>
-        <v>189</v>
+        <v>190.5</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
@@ -1947,11 +1950,14 @@
         <v>3</v>
       </c>
       <c r="C93" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D93">
-        <v>2</v>
-      </c>
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A94" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Organisatorisches/Arbeitszeiten.xlsx
+++ b/Organisatorisches/Arbeitszeiten.xlsx
@@ -1,31 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Daniel\Desktop\Schule\Diplomarbeit\Ruderverein_ISTER\1819-5ahif-da-ruderverein-ister-dreamteam\Organisatorisches\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{802E187D-EC3E-422A-8AFB-FF62C56BA6BC}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B2ABFC4-9CD3-4C8E-8452-0AA56DEB85FE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="6960" xr2:uid="{B5A97CFA-7350-44BD-8E9B-90279A779877}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="179017" concurrentCalc="0"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="72">
   <si>
     <t>Datum</t>
   </si>
@@ -238,6 +243,9 @@
   </si>
   <si>
     <t>Merged Google Signin + Bug fixing, implementing button visibilities</t>
+  </si>
+  <si>
+    <t>Code Review, Background Images</t>
   </si>
 </sst>
 </file>
@@ -627,8 +635,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB4D4F47-197B-4479-93DD-E9C21F2B9FCB}">
   <dimension ref="A1:H94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A81" workbookViewId="0">
-      <selection activeCell="D96" sqref="D96"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C89" sqref="C89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -693,7 +701,7 @@
       </c>
       <c r="H3">
         <f>SUMIF(B2:B201,"Daniel",D2:D201)</f>
-        <v>190.5</v>
+        <v>193</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
@@ -1957,7 +1965,18 @@
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A94" s="2"/>
+      <c r="A94" s="2">
+        <v>43116</v>
+      </c>
+      <c r="B94" t="s">
+        <v>3</v>
+      </c>
+      <c r="C94" t="s">
+        <v>71</v>
+      </c>
+      <c r="D94">
+        <v>2.5</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Organisatorisches/Arbeitszeiten.xlsx
+++ b/Organisatorisches/Arbeitszeiten.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Daniel\Desktop\Schule\Diplomarbeit\Ruderverein_ISTER\1819-5ahif-da-ruderverein-ister-dreamteam\Organisatorisches\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B2ABFC4-9CD3-4C8E-8452-0AA56DEB85FE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E70CA7A-9D13-4FC0-8570-6C783754C56E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="6960" xr2:uid="{B5A97CFA-7350-44BD-8E9B-90279A779877}"/>
   </bookViews>
@@ -245,7 +245,7 @@
     <t>Merged Google Signin + Bug fixing, implementing button visibilities</t>
   </si>
   <si>
-    <t>Code Review, Background Images</t>
+    <t>Code Review, Background Images, Flag Dropdown</t>
   </si>
 </sst>
 </file>
@@ -636,7 +636,7 @@
   <dimension ref="A1:H94"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C89" sqref="C89"/>
+      <selection activeCell="E91" sqref="E91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -701,7 +701,7 @@
       </c>
       <c r="H3">
         <f>SUMIF(B2:B201,"Daniel",D2:D201)</f>
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
@@ -1975,7 +1975,7 @@
         <v>71</v>
       </c>
       <c r="D94">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
     </row>
   </sheetData>

--- a/Organisatorisches/Arbeitszeiten.xlsx
+++ b/Organisatorisches/Arbeitszeiten.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Daniel\Desktop\Schule\Diplomarbeit\Ruderverein_ISTER\1819-5ahif-da-ruderverein-ister-dreamteam\Organisatorisches\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DaRepo7\1819-5ahif-da-ruderverein-ister-dreamteam\Organisatorisches\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E70CA7A-9D13-4FC0-8570-6C783754C56E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3DA6ACD-6B6C-4F98-B813-CE72418F62D2}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="6960" xr2:uid="{B5A97CFA-7350-44BD-8E9B-90279A779877}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17250" windowHeight="6960" xr2:uid="{B5A97CFA-7350-44BD-8E9B-90279A779877}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -23,6 +23,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="74">
   <si>
     <t>Datum</t>
   </si>
@@ -246,6 +247,12 @@
   </si>
   <si>
     <t>Code Review, Background Images, Flag Dropdown</t>
+  </si>
+  <si>
+    <t>Translation.csv erstellen + Translation in Db einspeisen</t>
+  </si>
+  <si>
+    <t>Algorithmus für Translation + Englisch Übersetzung</t>
   </si>
 </sst>
 </file>
@@ -633,18 +640,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB4D4F47-197B-4479-93DD-E9C21F2B9FCB}">
-  <dimension ref="A1:H94"/>
+  <dimension ref="A1:H96"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E91" sqref="E91"/>
+    <sheetView tabSelected="1" topLeftCell="A77" workbookViewId="0">
+      <selection activeCell="C97" sqref="C97"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="70.33203125" customWidth="1"/>
+    <col min="3" max="3" width="70.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -662,7 +669,7 @@
       </c>
       <c r="H1" s="5"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>43279</v>
       </c>
@@ -682,7 +689,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>43279</v>
       </c>
@@ -697,14 +704,14 @@
       </c>
       <c r="G3" s="4">
         <f>SUMIF(B2:B201,"David",D2:D201)</f>
-        <v>116</v>
+        <v>133</v>
       </c>
       <c r="H3">
         <f>SUMIF(B2:B201,"Daniel",D2:D201)</f>
         <v>194</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>43296</v>
       </c>
@@ -718,7 +725,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>43296</v>
       </c>
@@ -732,7 +739,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>43311</v>
       </c>
@@ -746,7 +753,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>43311</v>
       </c>
@@ -760,7 +767,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>43326</v>
       </c>
@@ -774,7 +781,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>43326</v>
       </c>
@@ -788,7 +795,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>43328</v>
       </c>
@@ -802,7 +809,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>43331</v>
       </c>
@@ -816,7 +823,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>43332</v>
       </c>
@@ -830,7 +837,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>43333</v>
       </c>
@@ -844,7 +851,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>43333</v>
       </c>
@@ -858,7 +865,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>43334</v>
       </c>
@@ -872,7 +879,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>43336</v>
       </c>
@@ -886,7 +893,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>43359</v>
       </c>
@@ -900,7 +907,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>43360</v>
       </c>
@@ -914,7 +921,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>43360</v>
       </c>
@@ -928,7 +935,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>43362</v>
       </c>
@@ -942,7 +949,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>43364</v>
       </c>
@@ -956,7 +963,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>43365</v>
       </c>
@@ -970,7 +977,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>43366</v>
       </c>
@@ -984,7 +991,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>43366</v>
       </c>
@@ -998,7 +1005,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>43366</v>
       </c>
@@ -1012,7 +1019,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>43368</v>
       </c>
@@ -1026,7 +1033,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>43368</v>
       </c>
@@ -1040,7 +1047,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>43369</v>
       </c>
@@ -1054,7 +1061,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>43370</v>
       </c>
@@ -1068,7 +1075,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>43371</v>
       </c>
@@ -1082,7 +1089,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>43373</v>
       </c>
@@ -1096,7 +1103,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>43374</v>
       </c>
@@ -1110,7 +1117,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>43374</v>
       </c>
@@ -1124,7 +1131,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>43375</v>
       </c>
@@ -1138,7 +1145,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>43375</v>
       </c>
@@ -1152,7 +1159,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>43376</v>
       </c>
@@ -1166,7 +1173,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>43377</v>
       </c>
@@ -1180,7 +1187,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>43378</v>
       </c>
@@ -1194,7 +1201,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <v>43378</v>
       </c>
@@ -1208,7 +1215,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <v>43380</v>
       </c>
@@ -1222,7 +1229,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
         <v>43382</v>
       </c>
@@ -1236,7 +1243,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
         <v>43389</v>
       </c>
@@ -1250,7 +1257,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
         <v>43391</v>
       </c>
@@ -1264,7 +1271,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
         <v>43391</v>
       </c>
@@ -1278,7 +1285,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
         <v>43394</v>
       </c>
@@ -1292,7 +1299,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
         <v>43401</v>
       </c>
@@ -1306,7 +1313,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
         <v>43402</v>
       </c>
@@ -1320,7 +1327,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
         <v>43403</v>
       </c>
@@ -1334,7 +1341,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
         <v>43404</v>
       </c>
@@ -1348,7 +1355,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
         <v>43404</v>
       </c>
@@ -1362,7 +1369,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
         <v>43407</v>
       </c>
@@ -1376,7 +1383,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="2">
         <v>43407</v>
       </c>
@@ -1390,7 +1397,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="2">
         <v>43415</v>
       </c>
@@ -1404,7 +1411,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="2">
         <v>43416</v>
       </c>
@@ -1418,7 +1425,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
         <v>43416</v>
       </c>
@@ -1432,7 +1439,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="2">
         <v>43417</v>
       </c>
@@ -1446,7 +1453,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="2">
         <v>43418</v>
       </c>
@@ -1460,7 +1467,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="2">
         <v>43419</v>
       </c>
@@ -1474,7 +1481,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="2">
         <v>43419</v>
       </c>
@@ -1488,7 +1495,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="2">
         <v>43420</v>
       </c>
@@ -1502,7 +1509,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="2">
         <v>43419</v>
       </c>
@@ -1516,7 +1523,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="2">
         <v>43421</v>
       </c>
@@ -1530,7 +1537,7 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="2">
         <v>43422</v>
       </c>
@@ -1544,7 +1551,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="2">
         <v>43424</v>
       </c>
@@ -1558,7 +1565,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="2">
         <v>43431</v>
       </c>
@@ -1572,7 +1579,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="2">
         <v>43435</v>
       </c>
@@ -1586,7 +1593,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="2">
         <v>43433</v>
       </c>
@@ -1600,7 +1607,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="2">
         <v>43434</v>
       </c>
@@ -1614,7 +1621,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="2">
         <v>43435</v>
       </c>
@@ -1628,7 +1635,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="2">
         <v>43441</v>
       </c>
@@ -1642,7 +1649,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="2">
         <v>43444</v>
       </c>
@@ -1656,7 +1663,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="2">
         <v>43446</v>
       </c>
@@ -1670,7 +1677,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="2">
         <v>43447</v>
       </c>
@@ -1684,7 +1691,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="2">
         <v>43448</v>
       </c>
@@ -1698,7 +1705,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="2">
         <v>43448</v>
       </c>
@@ -1712,7 +1719,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="2">
         <v>43451</v>
       </c>
@@ -1726,7 +1733,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="2">
         <v>43452</v>
       </c>
@@ -1740,7 +1747,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="2">
         <v>43453</v>
       </c>
@@ -1754,7 +1761,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="2">
         <v>43455</v>
       </c>
@@ -1768,7 +1775,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="2">
         <v>43455</v>
       </c>
@@ -1782,7 +1789,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="2">
         <v>43458</v>
       </c>
@@ -1796,7 +1803,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="2">
         <v>43458</v>
       </c>
@@ -1810,7 +1817,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="2">
         <v>43458</v>
       </c>
@@ -1824,7 +1831,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="2">
         <v>43460</v>
       </c>
@@ -1838,7 +1845,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="2">
         <v>43462</v>
       </c>
@@ -1852,7 +1859,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="2">
         <v>43463</v>
       </c>
@@ -1866,7 +1873,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="2">
         <v>43463</v>
       </c>
@@ -1880,7 +1887,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="2">
         <v>43464</v>
       </c>
@@ -1894,9 +1901,9 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="2">
-        <v>43102</v>
+        <v>43467</v>
       </c>
       <c r="B89" t="s">
         <v>3</v>
@@ -1908,9 +1915,9 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="2">
-        <v>43103</v>
+        <v>43468</v>
       </c>
       <c r="B90" t="s">
         <v>3</v>
@@ -1922,9 +1929,9 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="2">
-        <v>43104</v>
+        <v>43469</v>
       </c>
       <c r="B91" t="s">
         <v>3</v>
@@ -1936,9 +1943,9 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="2">
-        <v>43110</v>
+        <v>43475</v>
       </c>
       <c r="B92" t="s">
         <v>5</v>
@@ -1950,9 +1957,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="2">
-        <v>43110</v>
+        <v>43475</v>
       </c>
       <c r="B93" t="s">
         <v>3</v>
@@ -1964,9 +1971,9 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="2">
-        <v>43116</v>
+        <v>43481</v>
       </c>
       <c r="B94" t="s">
         <v>3</v>
@@ -1976,6 +1983,34 @@
       </c>
       <c r="D94">
         <v>3.5</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A95" s="2">
+        <v>43499</v>
+      </c>
+      <c r="B95" t="s">
+        <v>5</v>
+      </c>
+      <c r="C95" t="s">
+        <v>72</v>
+      </c>
+      <c r="D95">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A96" s="2">
+        <v>43500</v>
+      </c>
+      <c r="B96" t="s">
+        <v>5</v>
+      </c>
+      <c r="C96" t="s">
+        <v>73</v>
+      </c>
+      <c r="D96">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/Organisatorisches/Arbeitszeiten.xlsx
+++ b/Organisatorisches/Arbeitszeiten.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DaRepo7\1819-5ahif-da-ruderverein-ister-dreamteam\Organisatorisches\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Daniel\Desktop\Schule\Diplomarbeit\Ruderverein_ISTER\1819-5ahif-da-ruderverein-ister-dreamteam\Organisatorisches\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3DA6ACD-6B6C-4F98-B813-CE72418F62D2}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7A146C2-C451-40F3-B88E-10D71311BA08}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17250" windowHeight="6960" xr2:uid="{B5A97CFA-7350-44BD-8E9B-90279A779877}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="6960" xr2:uid="{B5A97CFA-7350-44BD-8E9B-90279A779877}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,6 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -31,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="75">
   <si>
     <t>Datum</t>
   </si>
@@ -253,6 +252,9 @@
   </si>
   <si>
     <t>Algorithmus für Translation + Englisch Übersetzung</t>
+  </si>
+  <si>
+    <t>Background Images erledigt</t>
   </si>
 </sst>
 </file>
@@ -640,18 +642,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB4D4F47-197B-4479-93DD-E9C21F2B9FCB}">
-  <dimension ref="A1:H96"/>
+  <dimension ref="A1:H97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A77" workbookViewId="0">
-      <selection activeCell="C97" sqref="C97"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F93" sqref="F93"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="70.28515625" customWidth="1"/>
+    <col min="3" max="3" width="70.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -669,7 +671,7 @@
       </c>
       <c r="H1" s="5"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>43279</v>
       </c>
@@ -689,7 +691,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>43279</v>
       </c>
@@ -708,10 +710,10 @@
       </c>
       <c r="H3">
         <f>SUMIF(B2:B201,"Daniel",D2:D201)</f>
-        <v>194</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+        <v>195.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>43296</v>
       </c>
@@ -725,7 +727,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>43296</v>
       </c>
@@ -739,7 +741,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>43311</v>
       </c>
@@ -753,7 +755,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>43311</v>
       </c>
@@ -767,7 +769,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>43326</v>
       </c>
@@ -781,7 +783,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>43326</v>
       </c>
@@ -795,7 +797,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>43328</v>
       </c>
@@ -809,7 +811,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>43331</v>
       </c>
@@ -823,7 +825,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>43332</v>
       </c>
@@ -837,7 +839,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>43333</v>
       </c>
@@ -851,7 +853,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>43333</v>
       </c>
@@ -865,7 +867,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>43334</v>
       </c>
@@ -879,7 +881,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>43336</v>
       </c>
@@ -893,7 +895,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>43359</v>
       </c>
@@ -907,7 +909,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>43360</v>
       </c>
@@ -921,7 +923,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>43360</v>
       </c>
@@ -935,7 +937,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <v>43362</v>
       </c>
@@ -949,7 +951,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>43364</v>
       </c>
@@ -963,7 +965,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <v>43365</v>
       </c>
@@ -977,7 +979,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <v>43366</v>
       </c>
@@ -991,7 +993,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <v>43366</v>
       </c>
@@ -1005,7 +1007,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
         <v>43366</v>
       </c>
@@ -1019,7 +1021,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
         <v>43368</v>
       </c>
@@ -1033,7 +1035,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
         <v>43368</v>
       </c>
@@ -1047,7 +1049,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
         <v>43369</v>
       </c>
@@ -1061,7 +1063,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
         <v>43370</v>
       </c>
@@ -1075,7 +1077,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
         <v>43371</v>
       </c>
@@ -1089,7 +1091,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
         <v>43373</v>
       </c>
@@ -1103,7 +1105,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" s="2">
         <v>43374</v>
       </c>
@@ -1117,7 +1119,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" s="2">
         <v>43374</v>
       </c>
@@ -1131,7 +1133,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="2">
         <v>43375</v>
       </c>
@@ -1145,7 +1147,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" s="2">
         <v>43375</v>
       </c>
@@ -1159,7 +1161,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" s="2">
         <v>43376</v>
       </c>
@@ -1173,7 +1175,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" s="2">
         <v>43377</v>
       </c>
@@ -1187,7 +1189,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" s="2">
         <v>43378</v>
       </c>
@@ -1201,7 +1203,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" s="2">
         <v>43378</v>
       </c>
@@ -1215,7 +1217,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" s="2">
         <v>43380</v>
       </c>
@@ -1229,7 +1231,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" s="2">
         <v>43382</v>
       </c>
@@ -1243,7 +1245,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" s="2">
         <v>43389</v>
       </c>
@@ -1257,7 +1259,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" s="2">
         <v>43391</v>
       </c>
@@ -1271,7 +1273,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" s="2">
         <v>43391</v>
       </c>
@@ -1285,7 +1287,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" s="2">
         <v>43394</v>
       </c>
@@ -1299,7 +1301,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" s="2">
         <v>43401</v>
       </c>
@@ -1313,7 +1315,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" s="2">
         <v>43402</v>
       </c>
@@ -1327,7 +1329,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" s="2">
         <v>43403</v>
       </c>
@@ -1341,7 +1343,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" s="2">
         <v>43404</v>
       </c>
@@ -1355,7 +1357,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" s="2">
         <v>43404</v>
       </c>
@@ -1369,7 +1371,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" s="2">
         <v>43407</v>
       </c>
@@ -1383,7 +1385,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" s="2">
         <v>43407</v>
       </c>
@@ -1397,7 +1399,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" s="2">
         <v>43415</v>
       </c>
@@ -1411,7 +1413,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" s="2">
         <v>43416</v>
       </c>
@@ -1425,7 +1427,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" s="2">
         <v>43416</v>
       </c>
@@ -1439,7 +1441,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" s="2">
         <v>43417</v>
       </c>
@@ -1453,7 +1455,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" s="2">
         <v>43418</v>
       </c>
@@ -1467,7 +1469,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" s="2">
         <v>43419</v>
       </c>
@@ -1481,7 +1483,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" s="2">
         <v>43419</v>
       </c>
@@ -1495,7 +1497,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" s="2">
         <v>43420</v>
       </c>
@@ -1509,7 +1511,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" s="2">
         <v>43419</v>
       </c>
@@ -1523,7 +1525,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" s="2">
         <v>43421</v>
       </c>
@@ -1537,7 +1539,7 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63" s="2">
         <v>43422</v>
       </c>
@@ -1551,7 +1553,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64" s="2">
         <v>43424</v>
       </c>
@@ -1565,7 +1567,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65" s="2">
         <v>43431</v>
       </c>
@@ -1579,7 +1581,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66" s="2">
         <v>43435</v>
       </c>
@@ -1593,7 +1595,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67" s="2">
         <v>43433</v>
       </c>
@@ -1607,7 +1609,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68" s="2">
         <v>43434</v>
       </c>
@@ -1621,7 +1623,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69" s="2">
         <v>43435</v>
       </c>
@@ -1635,7 +1637,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70" s="2">
         <v>43441</v>
       </c>
@@ -1649,7 +1651,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71" s="2">
         <v>43444</v>
       </c>
@@ -1663,7 +1665,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72" s="2">
         <v>43446</v>
       </c>
@@ -1677,7 +1679,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73" s="2">
         <v>43447</v>
       </c>
@@ -1691,7 +1693,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74" s="2">
         <v>43448</v>
       </c>
@@ -1705,7 +1707,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75" s="2">
         <v>43448</v>
       </c>
@@ -1719,7 +1721,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76" s="2">
         <v>43451</v>
       </c>
@@ -1733,7 +1735,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77" s="2">
         <v>43452</v>
       </c>
@@ -1747,7 +1749,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A78" s="2">
         <v>43453</v>
       </c>
@@ -1761,7 +1763,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A79" s="2">
         <v>43455</v>
       </c>
@@ -1775,7 +1777,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A80" s="2">
         <v>43455</v>
       </c>
@@ -1789,7 +1791,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A81" s="2">
         <v>43458</v>
       </c>
@@ -1803,7 +1805,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A82" s="2">
         <v>43458</v>
       </c>
@@ -1817,7 +1819,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A83" s="2">
         <v>43458</v>
       </c>
@@ -1831,7 +1833,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A84" s="2">
         <v>43460</v>
       </c>
@@ -1845,7 +1847,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A85" s="2">
         <v>43462</v>
       </c>
@@ -1859,7 +1861,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A86" s="2">
         <v>43463</v>
       </c>
@@ -1873,7 +1875,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A87" s="2">
         <v>43463</v>
       </c>
@@ -1887,7 +1889,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A88" s="2">
         <v>43464</v>
       </c>
@@ -1901,7 +1903,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A89" s="2">
         <v>43467</v>
       </c>
@@ -1915,7 +1917,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A90" s="2">
         <v>43468</v>
       </c>
@@ -1929,7 +1931,7 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A91" s="2">
         <v>43469</v>
       </c>
@@ -1943,7 +1945,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A92" s="2">
         <v>43475</v>
       </c>
@@ -1957,7 +1959,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A93" s="2">
         <v>43475</v>
       </c>
@@ -1971,7 +1973,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A94" s="2">
         <v>43481</v>
       </c>
@@ -1985,7 +1987,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A95" s="2">
         <v>43499</v>
       </c>
@@ -1999,7 +2001,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A96" s="2">
         <v>43500</v>
       </c>
@@ -2011,6 +2013,20 @@
       </c>
       <c r="D96">
         <v>7</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A97" s="2">
+        <v>43503</v>
+      </c>
+      <c r="B97" t="s">
+        <v>3</v>
+      </c>
+      <c r="C97" t="s">
+        <v>74</v>
+      </c>
+      <c r="D97">
+        <v>1.5</v>
       </c>
     </row>
   </sheetData>

--- a/Organisatorisches/Arbeitszeiten.xlsx
+++ b/Organisatorisches/Arbeitszeiten.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Daniel\Desktop\Schule\Diplomarbeit\Ruderverein_ISTER\1819-5ahif-da-ruderverein-ister-dreamteam\Organisatorisches\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7A146C2-C451-40F3-B88E-10D71311BA08}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8FEC7AE-7683-45B4-AF82-FF3BAC908597}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="6960" xr2:uid="{B5A97CFA-7350-44BD-8E9B-90279A779877}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="76">
   <si>
     <t>Datum</t>
   </si>
@@ -255,6 +255,9 @@
   </si>
   <si>
     <t>Background Images erledigt</t>
+  </si>
+  <si>
+    <t>Login Form</t>
   </si>
 </sst>
 </file>
@@ -642,10 +645,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB4D4F47-197B-4479-93DD-E9C21F2B9FCB}">
-  <dimension ref="A1:H97"/>
+  <dimension ref="A1:H98"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F93" sqref="F93"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -710,7 +713,7 @@
       </c>
       <c r="H3">
         <f>SUMIF(B2:B201,"Daniel",D2:D201)</f>
-        <v>195.5</v>
+        <v>197.5</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
@@ -2027,6 +2030,20 @@
       </c>
       <c r="D97">
         <v>1.5</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A98" s="2">
+        <v>43504</v>
+      </c>
+      <c r="B98" t="s">
+        <v>3</v>
+      </c>
+      <c r="C98" t="s">
+        <v>75</v>
+      </c>
+      <c r="D98">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/Organisatorisches/Arbeitszeiten.xlsx
+++ b/Organisatorisches/Arbeitszeiten.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Daniel\Desktop\Schule\Diplomarbeit\Ruderverein_ISTER\1819-5ahif-da-ruderverein-ister-dreamteam\Organisatorisches\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8FEC7AE-7683-45B4-AF82-FF3BAC908597}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{578A5D74-3A88-4153-8864-F329F54E6EED}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="6960" xr2:uid="{B5A97CFA-7350-44BD-8E9B-90279A779877}"/>
   </bookViews>
@@ -257,7 +257,7 @@
     <t>Background Images erledigt</t>
   </si>
   <si>
-    <t>Login Form</t>
+    <t>Login Form, Commenting Code</t>
   </si>
 </sst>
 </file>
@@ -648,7 +648,7 @@
   <dimension ref="A1:H98"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="F94" sqref="F94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -713,7 +713,7 @@
       </c>
       <c r="H3">
         <f>SUMIF(B2:B201,"Daniel",D2:D201)</f>
-        <v>197.5</v>
+        <v>201</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
@@ -2043,7 +2043,7 @@
         <v>75</v>
       </c>
       <c r="D98">
-        <v>2</v>
+        <v>5.5</v>
       </c>
     </row>
   </sheetData>

--- a/Organisatorisches/Arbeitszeiten.xlsx
+++ b/Organisatorisches/Arbeitszeiten.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Daniel\Desktop\Schule\Diplomarbeit\Ruderverein_ISTER\1819-5ahif-da-ruderverein-ister-dreamteam\Organisatorisches\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{578A5D74-3A88-4153-8864-F329F54E6EED}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{741BB2E3-4F84-4B69-82CB-0FB813CF367E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="6960" xr2:uid="{B5A97CFA-7350-44BD-8E9B-90279A779877}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="80">
   <si>
     <t>Datum</t>
   </si>
@@ -258,6 +258,18 @@
   </si>
   <si>
     <t>Login Form, Commenting Code</t>
+  </si>
+  <si>
+    <t>Code Review, intervals to events</t>
+  </si>
+  <si>
+    <t>Login Form, Change Distance Functionality</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Difference: </t>
+  </si>
+  <si>
+    <t>Login Form, Some More Translation</t>
   </si>
 </sst>
 </file>
@@ -322,7 +334,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -331,6 +343,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -645,10 +658,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB4D4F47-197B-4479-93DD-E9C21F2B9FCB}">
-  <dimension ref="A1:H98"/>
+  <dimension ref="A1:H102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F94" sqref="F94"/>
+      <selection activeCell="C97" sqref="C97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -713,7 +726,7 @@
       </c>
       <c r="H3">
         <f>SUMIF(B2:B201,"Daniel",D2:D201)</f>
-        <v>201</v>
+        <v>221</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
@@ -743,6 +756,13 @@
       <c r="D5">
         <v>1</v>
       </c>
+      <c r="G5" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="H5" s="6">
+        <f>H3-G3</f>
+        <v>88</v>
+      </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
@@ -2044,6 +2064,62 @@
       </c>
       <c r="D98">
         <v>5.5</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A99" s="2">
+        <v>43508</v>
+      </c>
+      <c r="B99" t="s">
+        <v>3</v>
+      </c>
+      <c r="C99" t="s">
+        <v>75</v>
+      </c>
+      <c r="D99">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A100" s="2">
+        <v>43510</v>
+      </c>
+      <c r="B100" t="s">
+        <v>3</v>
+      </c>
+      <c r="C100" t="s">
+        <v>76</v>
+      </c>
+      <c r="D100">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A101" s="2">
+        <v>43511</v>
+      </c>
+      <c r="B101" t="s">
+        <v>3</v>
+      </c>
+      <c r="C101" t="s">
+        <v>79</v>
+      </c>
+      <c r="D101">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A102" s="2">
+        <v>43512</v>
+      </c>
+      <c r="B102" t="s">
+        <v>3</v>
+      </c>
+      <c r="C102" t="s">
+        <v>77</v>
+      </c>
+      <c r="D102">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/Organisatorisches/Arbeitszeiten.xlsx
+++ b/Organisatorisches/Arbeitszeiten.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Daniel\Desktop\Schule\Diplomarbeit\Ruderverein_ISTER\1819-5ahif-da-ruderverein-ister-dreamteam\Organisatorisches\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{741BB2E3-4F84-4B69-82CB-0FB813CF367E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAB8755A-EC7D-4E0E-A7E9-9C55334989C9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="6960" xr2:uid="{B5A97CFA-7350-44BD-8E9B-90279A779877}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="81">
   <si>
     <t>Datum</t>
   </si>
@@ -270,6 +270,9 @@
   </si>
   <si>
     <t>Login Form, Some More Translation</t>
+  </si>
+  <si>
+    <t>Code async, error catching</t>
   </si>
 </sst>
 </file>
@@ -340,10 +343,10 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -658,10 +661,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB4D4F47-197B-4479-93DD-E9C21F2B9FCB}">
-  <dimension ref="A1:H102"/>
+  <dimension ref="A1:H103"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C97" sqref="C97"/>
+      <selection activeCell="F91" sqref="F91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -682,10 +685,10 @@
       <c r="D1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="5"/>
+      <c r="H1" s="6"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
@@ -726,7 +729,7 @@
       </c>
       <c r="H3">
         <f>SUMIF(B2:B201,"Daniel",D2:D201)</f>
-        <v>221</v>
+        <v>225</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
@@ -756,12 +759,12 @@
       <c r="D5">
         <v>1</v>
       </c>
-      <c r="G5" s="6" t="s">
+      <c r="G5" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="H5" s="6">
+      <c r="H5" s="5">
         <f>H3-G3</f>
-        <v>88</v>
+        <v>92</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
@@ -2082,7 +2085,7 @@
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A100" s="2">
-        <v>43510</v>
+        <v>43509</v>
       </c>
       <c r="B100" t="s">
         <v>3</v>
@@ -2120,6 +2123,20 @@
       </c>
       <c r="D102">
         <v>5</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A103" s="2">
+        <v>43513</v>
+      </c>
+      <c r="B103" t="s">
+        <v>3</v>
+      </c>
+      <c r="C103" t="s">
+        <v>80</v>
+      </c>
+      <c r="D103">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/Organisatorisches/Arbeitszeiten.xlsx
+++ b/Organisatorisches/Arbeitszeiten.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Daniel\Desktop\Schule\Diplomarbeit\Ruderverein_ISTER\1819-5ahif-da-ruderverein-ister-dreamteam\Organisatorisches\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAB8755A-EC7D-4E0E-A7E9-9C55334989C9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{123AEB7C-418B-467A-81D3-426695EF9C06}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="6960" xr2:uid="{B5A97CFA-7350-44BD-8E9B-90279A779877}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="82">
   <si>
     <t>Datum</t>
   </si>
@@ -273,6 +273,9 @@
   </si>
   <si>
     <t>Code async, error catching</t>
+  </si>
+  <si>
+    <t>Responses for Rest, Frontend error catching</t>
   </si>
 </sst>
 </file>
@@ -661,10 +664,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB4D4F47-197B-4479-93DD-E9C21F2B9FCB}">
-  <dimension ref="A1:H103"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F91" sqref="F91"/>
+      <selection activeCell="F99" sqref="F99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -729,7 +732,7 @@
       </c>
       <c r="H3">
         <f>SUMIF(B2:B201,"Daniel",D2:D201)</f>
-        <v>225</v>
+        <v>227.5</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
@@ -764,7 +767,7 @@
       </c>
       <c r="H5" s="5">
         <f>H3-G3</f>
-        <v>92</v>
+        <v>94.5</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
@@ -2137,6 +2140,20 @@
       </c>
       <c r="D103">
         <v>4</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A104" s="2">
+        <v>43515</v>
+      </c>
+      <c r="B104" t="s">
+        <v>3</v>
+      </c>
+      <c r="C104" t="s">
+        <v>81</v>
+      </c>
+      <c r="D104">
+        <v>2.5</v>
       </c>
     </row>
   </sheetData>

--- a/Organisatorisches/Arbeitszeiten.xlsx
+++ b/Organisatorisches/Arbeitszeiten.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Daniel\Desktop\Schule\Diplomarbeit\Ruderverein_ISTER\1819-5ahif-da-ruderverein-ister-dreamteam\Organisatorisches\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{123AEB7C-418B-467A-81D3-426695EF9C06}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4ED5D376-E414-41DE-B4DA-CBF0C61EE63B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="6960" xr2:uid="{B5A97CFA-7350-44BD-8E9B-90279A779877}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="83">
   <si>
     <t>Datum</t>
   </si>
@@ -276,6 +276,9 @@
   </si>
   <si>
     <t>Responses for Rest, Frontend error catching</t>
+  </si>
+  <si>
+    <t>some more Translations, started writing thesis</t>
   </si>
 </sst>
 </file>
@@ -664,10 +667,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB4D4F47-197B-4479-93DD-E9C21F2B9FCB}">
-  <dimension ref="A1:H104"/>
+  <dimension ref="A1:H105"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F99" sqref="F99"/>
+      <selection activeCell="F102" sqref="F102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -732,7 +735,7 @@
       </c>
       <c r="H3">
         <f>SUMIF(B2:B201,"Daniel",D2:D201)</f>
-        <v>227.5</v>
+        <v>229.5</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
@@ -767,7 +770,7 @@
       </c>
       <c r="H5" s="5">
         <f>H3-G3</f>
-        <v>94.5</v>
+        <v>96.5</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
@@ -2154,6 +2157,20 @@
       </c>
       <c r="D104">
         <v>2.5</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A105" s="2">
+        <v>43523</v>
+      </c>
+      <c r="B105" t="s">
+        <v>3</v>
+      </c>
+      <c r="C105" t="s">
+        <v>82</v>
+      </c>
+      <c r="D105">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/Organisatorisches/Arbeitszeiten.xlsx
+++ b/Organisatorisches/Arbeitszeiten.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Daniel\Desktop\Schule\Diplomarbeit\Ruderverein_ISTER\1819-5ahif-da-ruderverein-ister-dreamteam\Organisatorisches\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4ED5D376-E414-41DE-B4DA-CBF0C61EE63B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43F0B11F-8703-4DBF-B038-FAEF436BDD34}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="6960" xr2:uid="{B5A97CFA-7350-44BD-8E9B-90279A779877}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="84">
   <si>
     <t>Datum</t>
   </si>
@@ -279,6 +279,9 @@
   </si>
   <si>
     <t>some more Translations, started writing thesis</t>
+  </si>
+  <si>
+    <t>Bug Fixing Frontend, writing thesis</t>
   </si>
 </sst>
 </file>
@@ -667,10 +670,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB4D4F47-197B-4479-93DD-E9C21F2B9FCB}">
-  <dimension ref="A1:H105"/>
+  <dimension ref="A1:H106"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F102" sqref="F102"/>
+      <selection activeCell="F104" sqref="F104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -735,7 +738,7 @@
       </c>
       <c r="H3">
         <f>SUMIF(B2:B201,"Daniel",D2:D201)</f>
-        <v>229.5</v>
+        <v>235.5</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
@@ -770,7 +773,7 @@
       </c>
       <c r="H5" s="5">
         <f>H3-G3</f>
-        <v>96.5</v>
+        <v>102.5</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
@@ -2171,6 +2174,20 @@
       </c>
       <c r="D105">
         <v>2</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A106" s="2">
+        <v>43526</v>
+      </c>
+      <c r="B106" t="s">
+        <v>3</v>
+      </c>
+      <c r="C106" t="s">
+        <v>83</v>
+      </c>
+      <c r="D106">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
